--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -451,20 +451,14 @@
         <v>14.36</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>14.40000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>14.44000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>14.46</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>14.48</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>14.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>14.54</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>14.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>14.62</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -827,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -866,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -905,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -937,20 +871,14 @@
         <v>14.48</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -978,20 +906,14 @@
         <v>14.46</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1019,20 +941,14 @@
         <v>14.46</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1060,20 +976,14 @@
         <v>14.46</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1101,20 +1011,14 @@
         <v>14.48</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1142,20 +1046,14 @@
         <v>14.48</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1183,20 +1081,14 @@
         <v>14.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1224,20 +1116,14 @@
         <v>14.54</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1272,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1311,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1350,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1389,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1428,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1467,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1506,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1545,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1584,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1623,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1701,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1740,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1779,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1818,12 +1648,10 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1851,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3073,13 +2901,17 @@
         <v>14.48</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
@@ -3108,14 +2940,22 @@
         <v>14.46</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2983,22 @@
         <v>14.46</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3178,13 +3026,17 @@
         <v>14.46</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3219,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3254,8 +3112,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3289,8 +3153,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3324,8 +3194,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3235,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3388,14 +3270,22 @@
         <v>14.44000000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3423,14 +3313,22 @@
         <v>14.42000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3458,14 +3356,22 @@
         <v>14.42000000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3499,8 +3405,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3534,8 +3446,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3569,8 +3487,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3604,8 +3528,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3639,8 +3569,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3674,8 +3610,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3709,8 +3651,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3744,8 +3692,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3779,8 +3733,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3814,8 +3774,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3849,8 +3815,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3884,8 +3856,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +3897,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3954,8 +3938,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3989,8 +3979,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4024,8 +4020,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4059,8 +4061,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4094,8 +4102,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4129,8 +4143,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4164,8 +4184,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4199,8 +4225,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4234,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4269,8 +4307,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4304,8 +4348,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4339,8 +4389,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4374,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4409,8 +4471,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4444,8 +4512,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4479,8 +4553,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4514,8 +4594,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4549,8 +4635,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4584,8 +4676,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4619,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4654,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4689,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4724,8 +4840,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4759,8 +4881,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4794,8 +4922,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4829,8 +4963,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,16 +439,16 @@
         <v>14.4</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E2" t="n">
         <v>14.4</v>
       </c>
       <c r="F2" t="n">
-        <v>2530</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>14.36</v>
+        <v>14.28166666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>14.4</v>
       </c>
       <c r="C3" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D3" t="n">
         <v>14.5</v>
@@ -480,10 +480,10 @@
         <v>14.4</v>
       </c>
       <c r="F3" t="n">
-        <v>834</v>
+        <v>2530</v>
       </c>
       <c r="G3" t="n">
-        <v>14.40000000000001</v>
+        <v>14.27833333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C4" t="n">
         <v>14.5</v>
@@ -512,13 +512,13 @@
         <v>14.5</v>
       </c>
       <c r="E4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F4" t="n">
-        <v>166</v>
+        <v>834</v>
       </c>
       <c r="G4" t="n">
-        <v>14.44000000000001</v>
+        <v>14.27833333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>14.5</v>
       </c>
       <c r="F5" t="n">
-        <v>35700</v>
+        <v>166</v>
       </c>
       <c r="G5" t="n">
-        <v>14.46</v>
+        <v>14.27833333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>14.5</v>
       </c>
       <c r="F6" t="n">
-        <v>91.9061</v>
+        <v>35700</v>
       </c>
       <c r="G6" t="n">
-        <v>14.48</v>
+        <v>14.28000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>14.5</v>
       </c>
       <c r="F7" t="n">
-        <v>315</v>
+        <v>91.9061</v>
       </c>
       <c r="G7" t="n">
-        <v>14.5</v>
+        <v>14.28333333333335</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C8" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E8" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F8" t="n">
-        <v>117591.6494</v>
+        <v>315</v>
       </c>
       <c r="G8" t="n">
-        <v>14.54</v>
+        <v>14.29000000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D9" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E9" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F9" t="n">
-        <v>4611.287</v>
+        <v>117591.6494</v>
       </c>
       <c r="G9" t="n">
-        <v>14.6</v>
+        <v>14.30166666666668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D10" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E10" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F10" t="n">
-        <v>19295.7227</v>
+        <v>4611.287</v>
       </c>
       <c r="G10" t="n">
-        <v>14.62</v>
+        <v>14.31000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F11" t="n">
-        <v>2078.5772</v>
+        <v>19295.7227</v>
       </c>
       <c r="G11" t="n">
-        <v>14.62</v>
+        <v>14.31666666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C12" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D12" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E12" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F12" t="n">
-        <v>4072.5</v>
+        <v>2078.5772</v>
       </c>
       <c r="G12" t="n">
-        <v>14.6</v>
+        <v>14.32166666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>14.4</v>
       </c>
       <c r="F13" t="n">
-        <v>295</v>
+        <v>4072.5</v>
       </c>
       <c r="G13" t="n">
-        <v>14.54</v>
+        <v>14.32166666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>14.4</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D14" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E14" t="n">
         <v>14.4</v>
       </c>
       <c r="F14" t="n">
-        <v>2740</v>
+        <v>295</v>
       </c>
       <c r="G14" t="n">
-        <v>14.48</v>
+        <v>14.32166666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C15" t="n">
         <v>14.5</v>
@@ -897,13 +897,13 @@
         <v>14.5</v>
       </c>
       <c r="E15" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F15" t="n">
-        <v>21970</v>
+        <v>2740</v>
       </c>
       <c r="G15" t="n">
-        <v>14.46</v>
+        <v>14.32500000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C16" t="n">
         <v>14.5</v>
       </c>
       <c r="D16" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E16" t="n">
         <v>14.5</v>
       </c>
       <c r="F16" t="n">
-        <v>32598</v>
+        <v>21970</v>
       </c>
       <c r="G16" t="n">
-        <v>14.46</v>
+        <v>14.32666666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E17" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="F17" t="n">
-        <v>525655.9225</v>
+        <v>32598</v>
       </c>
       <c r="G17" t="n">
-        <v>14.46</v>
+        <v>14.33000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>14.5</v>
       </c>
       <c r="C18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D18" t="n">
         <v>14.5</v>
       </c>
       <c r="E18" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>525655.9225</v>
       </c>
       <c r="G18" t="n">
-        <v>14.48</v>
+        <v>14.33166666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C19" t="n">
         <v>14.5</v>
       </c>
       <c r="D19" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E19" t="n">
         <v>14.5</v>
       </c>
       <c r="F19" t="n">
-        <v>5620</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>14.48</v>
+        <v>14.33500000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>14.6</v>
       </c>
       <c r="C20" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D20" t="n">
         <v>14.6</v>
       </c>
       <c r="E20" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F20" t="n">
-        <v>245</v>
+        <v>5620</v>
       </c>
       <c r="G20" t="n">
-        <v>14.5</v>
+        <v>14.33833333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F21" t="n">
-        <v>33600</v>
+        <v>245</v>
       </c>
       <c r="G21" t="n">
-        <v>14.54</v>
+        <v>14.34500000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C22" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D22" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E22" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F22" t="n">
-        <v>2790.0822</v>
+        <v>33600</v>
       </c>
       <c r="G22" t="n">
-        <v>14.58</v>
+        <v>14.35333333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C23" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D23" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E23" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F23" t="n">
-        <v>5823.8743</v>
+        <v>2790.0822</v>
       </c>
       <c r="G23" t="n">
-        <v>14.64</v>
+        <v>14.36000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>14.8</v>
       </c>
       <c r="F24" t="n">
-        <v>8405</v>
+        <v>5823.8743</v>
       </c>
       <c r="G24" t="n">
-        <v>14.7</v>
+        <v>14.36833333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C25" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D25" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E25" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F25" t="n">
-        <v>95766.2781</v>
+        <v>8405</v>
       </c>
       <c r="G25" t="n">
-        <v>14.76</v>
+        <v>14.37833333333335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>14.9</v>
       </c>
       <c r="F26" t="n">
-        <v>4800</v>
+        <v>95766.2781</v>
       </c>
       <c r="G26" t="n">
-        <v>14.8</v>
+        <v>14.40000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F27" t="n">
-        <v>1000</v>
+        <v>4800</v>
       </c>
       <c r="G27" t="n">
-        <v>14.88</v>
+        <v>14.41333333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
         <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>24401.0367</v>
+        <v>1000</v>
       </c>
       <c r="G28" t="n">
-        <v>14.88</v>
+        <v>14.42666666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>14.8</v>
       </c>
       <c r="C29" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D29" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
         <v>14.8</v>
       </c>
       <c r="F29" t="n">
-        <v>1308</v>
+        <v>24401.0367</v>
       </c>
       <c r="G29" t="n">
-        <v>14.90000000000001</v>
+        <v>14.44000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>14.8</v>
       </c>
       <c r="C30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E30" t="n">
         <v>14.8</v>
       </c>
       <c r="F30" t="n">
-        <v>7193.9932</v>
+        <v>1308</v>
       </c>
       <c r="G30" t="n">
-        <v>14.88</v>
+        <v>14.45166666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>14.8</v>
       </c>
       <c r="F31" t="n">
-        <v>376.0068</v>
+        <v>7193.9932</v>
       </c>
       <c r="G31" t="n">
-        <v>14.86</v>
+        <v>14.46166666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F32" t="n">
-        <v>28344.6571</v>
+        <v>376.0068</v>
       </c>
       <c r="G32" t="n">
-        <v>14.86</v>
+        <v>14.47166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>24010.8107</v>
+        <v>28344.6571</v>
       </c>
       <c r="G33" t="n">
-        <v>14.94</v>
+        <v>14.48500000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C34" t="n">
         <v>15.2</v>
       </c>
-      <c r="C34" t="n">
-        <v>15.4</v>
-      </c>
       <c r="D34" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F34" t="n">
-        <v>300079.4803</v>
+        <v>24010.8107</v>
       </c>
       <c r="G34" t="n">
-        <v>15.04</v>
+        <v>14.50166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C35" t="n">
         <v>15.4</v>
       </c>
-      <c r="C35" t="n">
-        <v>15.5</v>
-      </c>
       <c r="D35" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E35" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F35" t="n">
-        <v>70647</v>
+        <v>300079.4803</v>
       </c>
       <c r="G35" t="n">
-        <v>15.18</v>
+        <v>14.52166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C36" t="n">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="D36" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E36" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="F36" t="n">
-        <v>11740</v>
+        <v>70647</v>
       </c>
       <c r="G36" t="n">
-        <v>15.20000000000001</v>
+        <v>14.54333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="C37" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D37" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E37" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F37" t="n">
-        <v>846</v>
+        <v>11740</v>
       </c>
       <c r="G37" t="n">
-        <v>15.22</v>
+        <v>14.55500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,28 +1693,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D38" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E38" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>2597.8725</v>
+        <v>846</v>
       </c>
       <c r="G38" t="n">
-        <v>15.16000000000001</v>
+        <v>14.57166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1740,10 +1740,10 @@
         <v>14.9</v>
       </c>
       <c r="F39" t="n">
-        <v>11258.6122</v>
+        <v>2597.8725</v>
       </c>
       <c r="G39" t="n">
-        <v>15.06000000000001</v>
+        <v>14.58333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>14.9</v>
       </c>
       <c r="C40" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D40" t="n">
         <v>14.9</v>
       </c>
       <c r="E40" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F40" t="n">
-        <v>33654.763</v>
+        <v>11258.6122</v>
       </c>
       <c r="G40" t="n">
-        <v>14.92000000000001</v>
+        <v>14.595</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>14.9</v>
       </c>
       <c r="C41" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D41" t="n">
         <v>14.9</v>
       </c>
       <c r="E41" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F41" t="n">
-        <v>3761.3679</v>
+        <v>33654.763</v>
       </c>
       <c r="G41" t="n">
-        <v>14.88</v>
+        <v>14.60166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C42" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D42" t="n">
         <v>14.9</v>
       </c>
       <c r="E42" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F42" t="n">
-        <v>46561.7585</v>
+        <v>3761.3679</v>
       </c>
       <c r="G42" t="n">
-        <v>14.82</v>
+        <v>14.60833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C43" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D43" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E43" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="F43" t="n">
-        <v>175677.378</v>
+        <v>46561.7585</v>
       </c>
       <c r="G43" t="n">
-        <v>14.78</v>
+        <v>14.61666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C44" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D44" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E44" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F44" t="n">
-        <v>69307.68829999999</v>
+        <v>175677.378</v>
       </c>
       <c r="G44" t="n">
-        <v>14.76</v>
+        <v>14.62333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C45" t="n">
         <v>14.8</v>
@@ -1947,13 +1947,13 @@
         <v>14.8</v>
       </c>
       <c r="E45" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F45" t="n">
-        <v>1763.6636</v>
+        <v>69307.68829999999</v>
       </c>
       <c r="G45" t="n">
-        <v>14.76</v>
+        <v>14.63166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C46" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D46" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E46" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F46" t="n">
-        <v>5110</v>
+        <v>1763.6636</v>
       </c>
       <c r="G46" t="n">
-        <v>14.76</v>
+        <v>14.64000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C47" t="n">
         <v>14.7</v>
       </c>
       <c r="D47" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E47" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F47" t="n">
-        <v>38395.8134</v>
+        <v>5110</v>
       </c>
       <c r="G47" t="n">
-        <v>14.74</v>
+        <v>14.64500000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C48" t="n">
         <v>14.7</v>
       </c>
       <c r="D48" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E48" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F48" t="n">
-        <v>2416.2608</v>
+        <v>38395.8134</v>
       </c>
       <c r="G48" t="n">
-        <v>14.74</v>
+        <v>14.65000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>14.7</v>
       </c>
       <c r="C49" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D49" t="n">
         <v>14.7</v>
       </c>
       <c r="E49" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F49" t="n">
-        <v>47827</v>
+        <v>2416.2608</v>
       </c>
       <c r="G49" t="n">
-        <v>14.7</v>
+        <v>14.65500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C50" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D50" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E50" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F50" t="n">
-        <v>64733</v>
+        <v>47827</v>
       </c>
       <c r="G50" t="n">
-        <v>14.64</v>
+        <v>14.65833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>14.6</v>
       </c>
       <c r="C51" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D51" t="n">
         <v>14.6</v>
@@ -2160,10 +2160,10 @@
         <v>14.5</v>
       </c>
       <c r="F51" t="n">
-        <v>23457.4931</v>
+        <v>64733</v>
       </c>
       <c r="G51" t="n">
-        <v>14.62</v>
+        <v>14.66000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,32 +2183,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C52" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D52" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E52" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>23457.4931</v>
       </c>
       <c r="G52" t="n">
-        <v>14.62</v>
+        <v>14.66166666666668</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,32 +2224,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C53" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D53" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E53" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F53" t="n">
-        <v>64542.0114</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>14.58</v>
+        <v>14.66500000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2265,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C54" t="n">
         <v>14.5</v>
       </c>
       <c r="D54" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E54" t="n">
         <v>14.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2713.0929</v>
+        <v>64542.0114</v>
       </c>
       <c r="G54" t="n">
-        <v>14.56</v>
+        <v>14.66500000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2290,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C55" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D55" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E55" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F55" t="n">
-        <v>20</v>
+        <v>2713.0929</v>
       </c>
       <c r="G55" t="n">
-        <v>14.58</v>
+        <v>14.66833333333335</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2329,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,32 +2343,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C56" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D56" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E56" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G56" t="n">
-        <v>14.6</v>
+        <v>14.67333333333335</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2384,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C57" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D57" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E57" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F57" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>14.58</v>
+        <v>14.68000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2409,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2435,10 @@
         <v>14.6</v>
       </c>
       <c r="F58" t="n">
-        <v>5226.9999</v>
+        <v>300</v>
       </c>
       <c r="G58" t="n">
-        <v>14.6</v>
+        <v>14.68500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2448,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2474,10 @@
         <v>14.6</v>
       </c>
       <c r="F59" t="n">
-        <v>24000</v>
+        <v>5226.9999</v>
       </c>
       <c r="G59" t="n">
-        <v>14.62</v>
+        <v>14.69000000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2487,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2513,10 @@
         <v>14.6</v>
       </c>
       <c r="F60" t="n">
-        <v>122897.97</v>
+        <v>24000</v>
       </c>
       <c r="G60" t="n">
-        <v>14.62</v>
+        <v>14.69500000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2526,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2552,10 @@
         <v>14.6</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0027</v>
+        <v>122897.97</v>
       </c>
       <c r="G61" t="n">
-        <v>14.6</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2565,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2579,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C62" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D62" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E62" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F62" t="n">
-        <v>1985.061</v>
+        <v>0.0027</v>
       </c>
       <c r="G62" t="n">
-        <v>14.58</v>
+        <v>14.70166666666669</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2604,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2618,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C63" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D63" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E63" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F63" t="n">
-        <v>18047.602</v>
+        <v>1985.061</v>
       </c>
       <c r="G63" t="n">
-        <v>14.58</v>
+        <v>14.70333333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2643,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2669,10 @@
         <v>14.6</v>
       </c>
       <c r="F64" t="n">
-        <v>7210.5308</v>
+        <v>18047.602</v>
       </c>
       <c r="G64" t="n">
-        <v>14.58</v>
+        <v>14.70500000000002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2682,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2708,10 @@
         <v>14.6</v>
       </c>
       <c r="F65" t="n">
-        <v>3908.4996</v>
+        <v>7210.5308</v>
       </c>
       <c r="G65" t="n">
-        <v>14.58</v>
+        <v>14.70666666666669</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2721,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2735,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C66" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D66" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E66" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F66" t="n">
-        <v>3977.2985</v>
+        <v>3908.4996</v>
       </c>
       <c r="G66" t="n">
-        <v>14.56</v>
+        <v>14.70833333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2760,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2786,10 @@
         <v>14.5</v>
       </c>
       <c r="F67" t="n">
-        <v>1984.281</v>
+        <v>3977.2985</v>
       </c>
       <c r="G67" t="n">
-        <v>14.56</v>
+        <v>14.70833333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2799,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2825,10 @@
         <v>14.5</v>
       </c>
       <c r="F68" t="n">
-        <v>2994.65</v>
+        <v>1984.281</v>
       </c>
       <c r="G68" t="n">
-        <v>14.54</v>
+        <v>14.70833333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2838,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2864,10 @@
         <v>14.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1988.6492</v>
+        <v>2994.65</v>
       </c>
       <c r="G69" t="n">
-        <v>14.52</v>
+        <v>14.70500000000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2877,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +2903,10 @@
         <v>14.5</v>
       </c>
       <c r="F70" t="n">
-        <v>18400</v>
+        <v>1988.6492</v>
       </c>
       <c r="G70" t="n">
-        <v>14.5</v>
+        <v>14.70000000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2916,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +2942,10 @@
         <v>14.5</v>
       </c>
       <c r="F71" t="n">
-        <v>13620.1774</v>
+        <v>18400</v>
       </c>
       <c r="G71" t="n">
-        <v>14.5</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2955,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,36 +2969,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C72" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D72" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E72" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F72" t="n">
-        <v>17117.3038</v>
+        <v>13620.1774</v>
       </c>
       <c r="G72" t="n">
-        <v>14.48</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2934,26 +3020,22 @@
         <v>14.4</v>
       </c>
       <c r="F73" t="n">
-        <v>72702.3023</v>
+        <v>17117.3038</v>
       </c>
       <c r="G73" t="n">
-        <v>14.46</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -2965,38 +3047,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C74" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D74" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E74" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F74" t="n">
-        <v>2680</v>
+        <v>72702.3023</v>
       </c>
       <c r="G74" t="n">
-        <v>14.46</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K74" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3020,24 +3098,24 @@
         <v>14.5</v>
       </c>
       <c r="F75" t="n">
-        <v>20600</v>
+        <v>2680</v>
       </c>
       <c r="G75" t="n">
-        <v>14.46</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K75" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3050,19 +3128,19 @@
         <v>14.5</v>
       </c>
       <c r="C76" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D76" t="n">
         <v>14.5</v>
       </c>
       <c r="E76" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F76" t="n">
-        <v>44454.5683</v>
+        <v>20600</v>
       </c>
       <c r="G76" t="n">
-        <v>14.44000000000001</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3071,12 +3149,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3091,19 +3167,19 @@
         <v>14.5</v>
       </c>
       <c r="C77" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D77" t="n">
         <v>14.5</v>
       </c>
       <c r="E77" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F77" t="n">
-        <v>1979.4447</v>
+        <v>44454.5683</v>
       </c>
       <c r="G77" t="n">
-        <v>14.46</v>
+        <v>14.69666666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3112,9 +3188,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,22 +3203,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C78" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D78" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E78" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F78" t="n">
-        <v>3989.0186</v>
+        <v>1979.4447</v>
       </c>
       <c r="G78" t="n">
-        <v>14.46</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3153,9 +3227,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3182,10 +3254,10 @@
         <v>14.4</v>
       </c>
       <c r="F79" t="n">
-        <v>18537.449</v>
+        <v>3989.0186</v>
       </c>
       <c r="G79" t="n">
-        <v>14.44000000000001</v>
+        <v>14.69666666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3194,9 +3266,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,10 +3293,10 @@
         <v>14.4</v>
       </c>
       <c r="F80" t="n">
-        <v>688.9583</v>
+        <v>18537.449</v>
       </c>
       <c r="G80" t="n">
-        <v>14.42000000000001</v>
+        <v>14.69500000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3235,9 +3305,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3252,35 +3320,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C81" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D81" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E81" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F81" t="n">
-        <v>3040</v>
+        <v>688.9583</v>
       </c>
       <c r="G81" t="n">
-        <v>14.44000000000001</v>
+        <v>14.69166666666669</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,35 +3359,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C82" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D82" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E82" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F82" t="n">
-        <v>1397.2159</v>
+        <v>3040</v>
       </c>
       <c r="G82" t="n">
-        <v>14.42000000000001</v>
+        <v>14.68833333333335</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,23 +3410,19 @@
         <v>14.4</v>
       </c>
       <c r="F83" t="n">
-        <v>9296.386200000001</v>
+        <v>1397.2159</v>
       </c>
       <c r="G83" t="n">
-        <v>14.42000000000001</v>
+        <v>14.68500000000002</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3381,22 +3437,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C84" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D84" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E84" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F84" t="n">
-        <v>21378.6134</v>
+        <v>9296.386200000001</v>
       </c>
       <c r="G84" t="n">
-        <v>14.44000000000001</v>
+        <v>14.67833333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3405,9 +3461,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,10 +3488,10 @@
         <v>14.5</v>
       </c>
       <c r="F85" t="n">
-        <v>20800</v>
+        <v>21378.6134</v>
       </c>
       <c r="G85" t="n">
-        <v>14.46</v>
+        <v>14.67333333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3446,9 +3500,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,10 +3527,10 @@
         <v>14.5</v>
       </c>
       <c r="F86" t="n">
-        <v>1963.8438</v>
+        <v>20800</v>
       </c>
       <c r="G86" t="n">
-        <v>14.46</v>
+        <v>14.66666666666669</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3487,9 +3539,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,10 +3566,10 @@
         <v>14.5</v>
       </c>
       <c r="F87" t="n">
-        <v>17305</v>
+        <v>1963.8438</v>
       </c>
       <c r="G87" t="n">
-        <v>14.48</v>
+        <v>14.66000000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3528,9 +3578,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3557,10 +3605,10 @@
         <v>14.5</v>
       </c>
       <c r="F88" t="n">
-        <v>50000</v>
+        <v>17305</v>
       </c>
       <c r="G88" t="n">
-        <v>14.5</v>
+        <v>14.65166666666669</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3569,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3598,10 +3644,10 @@
         <v>14.5</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G89" t="n">
-        <v>14.5</v>
+        <v>14.64666666666669</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3610,9 +3656,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,10 +3683,10 @@
         <v>14.5</v>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>14.5</v>
+        <v>14.64000000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3651,9 +3695,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3668,22 +3710,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C91" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D91" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E91" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F91" t="n">
-        <v>12900.5166</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>14.52</v>
+        <v>14.63500000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3692,9 +3734,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,22 +3749,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C92" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D92" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E92" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F92" t="n">
-        <v>22000</v>
+        <v>12900.5166</v>
       </c>
       <c r="G92" t="n">
-        <v>14.56</v>
+        <v>14.63166666666669</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3733,9 +3773,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3762,10 +3800,10 @@
         <v>14.7</v>
       </c>
       <c r="F93" t="n">
-        <v>42584.0367</v>
+        <v>22000</v>
       </c>
       <c r="G93" t="n">
-        <v>14.6</v>
+        <v>14.62666666666669</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3774,9 +3812,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3791,22 +3827,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C94" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D94" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E94" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>42584.0367</v>
       </c>
       <c r="G94" t="n">
-        <v>14.62</v>
+        <v>14.61833333333336</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3815,9 +3851,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,10 +3878,10 @@
         <v>14.6</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" t="n">
-        <v>14.64</v>
+        <v>14.60500000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3856,9 +3890,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3873,22 +3905,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C96" t="n">
         <v>14.6</v>
       </c>
       <c r="D96" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E96" t="n">
         <v>14.6</v>
       </c>
       <c r="F96" t="n">
-        <v>30802.72108843537</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>14.64</v>
+        <v>14.59000000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3897,9 +3929,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,22 +3944,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C97" t="n">
         <v>14.6</v>
       </c>
       <c r="D97" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E97" t="n">
         <v>14.6</v>
       </c>
       <c r="F97" t="n">
-        <v>14972.2675</v>
+        <v>30802.72108843537</v>
       </c>
       <c r="G97" t="n">
-        <v>14.62</v>
+        <v>14.58500000000003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3938,9 +3968,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3955,22 +3983,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C98" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D98" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E98" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F98" t="n">
-        <v>6802.721088435374</v>
+        <v>14972.2675</v>
       </c>
       <c r="G98" t="n">
-        <v>14.62</v>
+        <v>14.57666666666669</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3979,9 +4007,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3996,22 +4022,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C99" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D99" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E99" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F99" t="n">
-        <v>23634</v>
+        <v>6802.721088435374</v>
       </c>
       <c r="G99" t="n">
-        <v>14.62</v>
+        <v>14.57333333333336</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4020,9 +4046,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,10 +4073,10 @@
         <v>14.6</v>
       </c>
       <c r="F100" t="n">
-        <v>3980</v>
+        <v>23634</v>
       </c>
       <c r="G100" t="n">
-        <v>14.62</v>
+        <v>14.56833333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4061,9 +4085,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,22 +4100,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C101" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D101" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E101" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F101" t="n">
-        <v>8163.265306122449</v>
+        <v>3980</v>
       </c>
       <c r="G101" t="n">
-        <v>14.64</v>
+        <v>14.56500000000003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4102,9 +4124,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4122,19 +4142,19 @@
         <v>14.7</v>
       </c>
       <c r="C102" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D102" t="n">
         <v>14.7</v>
       </c>
       <c r="E102" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F102" t="n">
-        <v>6248.360544217687</v>
+        <v>8163.265306122449</v>
       </c>
       <c r="G102" t="n">
-        <v>14.64</v>
+        <v>14.56500000000003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4143,9 +4163,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,22 +4178,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C103" t="n">
         <v>14.6</v>
       </c>
       <c r="D103" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E103" t="n">
         <v>14.6</v>
       </c>
       <c r="F103" t="n">
-        <v>24868</v>
+        <v>6248.360544217687</v>
       </c>
       <c r="G103" t="n">
-        <v>14.62</v>
+        <v>14.5616666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4184,9 +4202,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,10 +4229,10 @@
         <v>14.6</v>
       </c>
       <c r="F104" t="n">
-        <v>11896.1755</v>
+        <v>24868</v>
       </c>
       <c r="G104" t="n">
-        <v>14.62</v>
+        <v>14.56000000000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4225,9 +4241,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,10 +4268,10 @@
         <v>14.6</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>11896.1755</v>
       </c>
       <c r="G105" t="n">
-        <v>14.62</v>
+        <v>14.5566666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4266,9 +4280,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,10 +4307,10 @@
         <v>14.6</v>
       </c>
       <c r="F106" t="n">
-        <v>27334.557</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>14.6</v>
+        <v>14.55333333333336</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4307,9 +4319,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4336,10 +4346,10 @@
         <v>14.6</v>
       </c>
       <c r="F107" t="n">
-        <v>19800</v>
+        <v>27334.557</v>
       </c>
       <c r="G107" t="n">
-        <v>14.6</v>
+        <v>14.5516666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4348,9 +4358,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,22 +4373,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C108" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D108" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E108" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F108" t="n">
-        <v>1984.8184</v>
+        <v>19800</v>
       </c>
       <c r="G108" t="n">
-        <v>14.58</v>
+        <v>14.55000000000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4389,9 +4397,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,22 +4412,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C109" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D109" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E109" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F109" t="n">
-        <v>100</v>
+        <v>1984.8184</v>
       </c>
       <c r="G109" t="n">
-        <v>14.58</v>
+        <v>14.5466666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4430,9 +4436,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,22 +4451,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C110" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D110" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E110" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F110" t="n">
-        <v>58951.5175</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>14.56</v>
+        <v>14.5466666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4471,9 +4475,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,22 +4490,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C111" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D111" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E111" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F111" t="n">
-        <v>898.4825</v>
+        <v>58951.5175</v>
       </c>
       <c r="G111" t="n">
-        <v>14.52</v>
+        <v>14.5466666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4512,9 +4514,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,22 +4529,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C112" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D112" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E112" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>898.4825</v>
       </c>
       <c r="G112" t="n">
-        <v>14.52</v>
+        <v>14.54333333333336</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4553,9 +4553,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,22 +4568,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C113" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D113" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E113" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F113" t="n">
-        <v>4480</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>14.5</v>
+        <v>14.54166666666669</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4594,9 +4592,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,22 +4607,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C114" t="n">
         <v>14.4</v>
       </c>
       <c r="D114" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E114" t="n">
         <v>14.4</v>
       </c>
       <c r="F114" t="n">
-        <v>65371.6852</v>
+        <v>4480</v>
       </c>
       <c r="G114" t="n">
-        <v>14.46</v>
+        <v>14.54000000000003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4635,9 +4631,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,22 +4646,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C115" t="n">
         <v>14.4</v>
       </c>
       <c r="D115" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E115" t="n">
         <v>14.4</v>
       </c>
       <c r="F115" t="n">
-        <v>5885.9352</v>
+        <v>65371.6852</v>
       </c>
       <c r="G115" t="n">
-        <v>14.44000000000001</v>
+        <v>14.53833333333336</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4676,9 +4670,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4693,22 +4685,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C116" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D116" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E116" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F116" t="n">
-        <v>105658.7256</v>
+        <v>5885.9352</v>
       </c>
       <c r="G116" t="n">
-        <v>14.46</v>
+        <v>14.53500000000003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4717,9 +4709,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,22 +4724,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C117" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D117" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E117" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F117" t="n">
-        <v>21000</v>
+        <v>105658.7256</v>
       </c>
       <c r="G117" t="n">
-        <v>14.42000000000001</v>
+        <v>14.53166666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4758,9 +4748,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4775,22 +4763,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C118" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D118" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E118" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F118" t="n">
-        <v>6004.3968</v>
+        <v>21000</v>
       </c>
       <c r="G118" t="n">
-        <v>14.44000000000001</v>
+        <v>14.52833333333336</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4799,9 +4787,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,22 +4802,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C119" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D119" t="n">
         <v>14.5</v>
       </c>
       <c r="E119" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F119" t="n">
-        <v>27421.405</v>
+        <v>6004.3968</v>
       </c>
       <c r="G119" t="n">
-        <v>14.44000000000001</v>
+        <v>14.52666666666669</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4840,9 +4826,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4857,22 +4841,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="C120" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D120" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="E120" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>27421.405</v>
       </c>
       <c r="G120" t="n">
-        <v>14.42000000000001</v>
+        <v>14.52333333333336</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4881,9 +4865,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4898,22 +4880,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C121" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D121" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E121" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F121" t="n">
-        <v>194448</v>
+        <v>20</v>
       </c>
       <c r="G121" t="n">
-        <v>14.42000000000001</v>
+        <v>14.51833333333336</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4922,9 +4904,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4939,39 +4919,76 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>194448</v>
+      </c>
+      <c r="G122" t="n">
+        <v>14.51666666666669</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C123" t="n">
         <v>14.3</v>
       </c>
-      <c r="D122" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E122" t="n">
+      <c r="D123" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E123" t="n">
         <v>14.3</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F123" t="n">
         <v>21527.0138</v>
       </c>
-      <c r="G122" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="G123" t="n">
+        <v>14.51333333333335</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C2" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E2" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>37861.2403</v>
       </c>
       <c r="G2" t="n">
-        <v>14.38</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28166666666668</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="D3" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="E3" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2530</v>
+        <v>7546.6017</v>
       </c>
       <c r="G3" t="n">
-        <v>14.38</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H3" t="n">
-        <v>14.27833333333335</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C4" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D4" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="E4" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F4" t="n">
-        <v>834</v>
+        <v>27086.9699</v>
       </c>
       <c r="G4" t="n">
-        <v>14.38666666666667</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H4" t="n">
-        <v>14.27833333333335</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="C5" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D5" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="E5" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="F5" t="n">
-        <v>166</v>
+        <v>6449.8736</v>
       </c>
       <c r="G5" t="n">
-        <v>14.39333333333333</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H5" t="n">
-        <v>14.27833333333335</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D6" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E6" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="F6" t="n">
-        <v>35700</v>
+        <v>27447.8546</v>
       </c>
       <c r="G6" t="n">
-        <v>14.4</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="D7" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="E7" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="F7" t="n">
-        <v>91.9061</v>
+        <v>35678.5872</v>
       </c>
       <c r="G7" t="n">
-        <v>14.4</v>
+        <v>915270.1008293707</v>
       </c>
       <c r="H7" t="n">
-        <v>14.28333333333335</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D8" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="E8" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="F8" t="n">
-        <v>315</v>
+        <v>45800</v>
       </c>
       <c r="G8" t="n">
-        <v>14.4</v>
+        <v>961070.1008293707</v>
       </c>
       <c r="H8" t="n">
-        <v>14.29000000000002</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="C9" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="D9" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="E9" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="F9" t="n">
-        <v>117591.6494</v>
+        <v>100000</v>
       </c>
       <c r="G9" t="n">
-        <v>14.41333333333333</v>
+        <v>961070.1008293707</v>
       </c>
       <c r="H9" t="n">
-        <v>14.30166666666668</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C10" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D10" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="E10" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F10" t="n">
-        <v>4611.287</v>
+        <v>40184.3052</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44666666666667</v>
+        <v>1001254.406029371</v>
       </c>
       <c r="H10" t="n">
-        <v>14.31000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="C11" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="D11" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="E11" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="F11" t="n">
-        <v>19295.7227</v>
+        <v>2234.3234</v>
       </c>
       <c r="G11" t="n">
-        <v>14.46666666666667</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H11" t="n">
-        <v>14.31666666666668</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C12" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D12" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E12" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2078.5772</v>
+        <v>5268</v>
       </c>
       <c r="G12" t="n">
-        <v>14.48</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H12" t="n">
-        <v>14.32166666666668</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C13" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D13" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E13" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F13" t="n">
-        <v>4072.5</v>
+        <v>28800</v>
       </c>
       <c r="G13" t="n">
-        <v>14.48666666666666</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H13" t="n">
-        <v>14.32166666666668</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C14" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D14" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E14" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F14" t="n">
-        <v>295</v>
+        <v>21433.2117</v>
       </c>
       <c r="G14" t="n">
-        <v>14.49333333333333</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H14" t="n">
-        <v>14.32166666666668</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D15" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E15" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2740</v>
+        <v>117315.515</v>
       </c>
       <c r="G15" t="n">
-        <v>14.50666666666666</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H15" t="n">
-        <v>14.32500000000002</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C16" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D16" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E16" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F16" t="n">
-        <v>21970</v>
+        <v>73641.1176</v>
       </c>
       <c r="G16" t="n">
-        <v>14.51333333333333</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H16" t="n">
-        <v>14.32666666666668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C17" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D17" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E17" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F17" t="n">
-        <v>32598</v>
+        <v>78800</v>
       </c>
       <c r="G17" t="n">
-        <v>14.51999999999999</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H17" t="n">
-        <v>14.33000000000002</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C18" t="n">
         <v>14.4</v>
       </c>
       <c r="D18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E18" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F18" t="n">
-        <v>525655.9225</v>
+        <v>1399.2361</v>
       </c>
       <c r="G18" t="n">
-        <v>14.51999999999999</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H18" t="n">
-        <v>14.33166666666668</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C19" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D19" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E19" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>18600</v>
       </c>
       <c r="G19" t="n">
-        <v>14.51999999999999</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H19" t="n">
-        <v>14.33500000000002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D20" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E20" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F20" t="n">
-        <v>5620</v>
+        <v>1390</v>
       </c>
       <c r="G20" t="n">
-        <v>14.51999999999999</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H20" t="n">
-        <v>14.33833333333335</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F21" t="n">
-        <v>245</v>
+        <v>1379.310344827586</v>
       </c>
       <c r="G21" t="n">
-        <v>14.52666666666666</v>
+        <v>1074040.510574198</v>
       </c>
       <c r="H21" t="n">
-        <v>14.34500000000002</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C22" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D22" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E22" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F22" t="n">
-        <v>33600</v>
+        <v>37851.1034</v>
       </c>
       <c r="G22" t="n">
-        <v>14.53999999999999</v>
+        <v>1074040.510574198</v>
       </c>
       <c r="H22" t="n">
-        <v>14.35333333333335</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C23" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D23" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E23" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F23" t="n">
-        <v>2790.0822</v>
+        <v>21000</v>
       </c>
       <c r="G23" t="n">
-        <v>14.54666666666666</v>
+        <v>1074040.510574198</v>
       </c>
       <c r="H23" t="n">
-        <v>14.36000000000002</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C24" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="D24" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="E24" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="F24" t="n">
-        <v>5823.8743</v>
+        <v>1790.4873</v>
       </c>
       <c r="G24" t="n">
-        <v>14.55333333333333</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H24" t="n">
-        <v>14.36833333333335</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C25" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="D25" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="E25" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="F25" t="n">
-        <v>8405</v>
+        <v>400</v>
       </c>
       <c r="G25" t="n">
-        <v>14.55333333333333</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H25" t="n">
-        <v>14.37833333333335</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="C26" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="D26" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="E26" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="F26" t="n">
-        <v>95766.2781</v>
+        <v>38600</v>
       </c>
       <c r="G26" t="n">
-        <v>14.57333333333333</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H26" t="n">
-        <v>14.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="C27" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="D27" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="E27" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="F27" t="n">
-        <v>4800</v>
+        <v>17278.4622</v>
       </c>
       <c r="G27" t="n">
-        <v>14.6</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H27" t="n">
-        <v>14.41333333333335</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1000</v>
+        <v>24040</v>
       </c>
       <c r="G28" t="n">
-        <v>14.64</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H28" t="n">
-        <v>14.42666666666668</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C29" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="E29" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="F29" t="n">
-        <v>24401.0367</v>
+        <v>52648</v>
       </c>
       <c r="G29" t="n">
-        <v>14.66666666666666</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H29" t="n">
-        <v>14.44000000000001</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C30" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="D30" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E30" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="F30" t="n">
-        <v>1308</v>
+        <v>58921.7601</v>
       </c>
       <c r="G30" t="n">
-        <v>14.69333333333333</v>
+        <v>1131171.783374198</v>
       </c>
       <c r="H30" t="n">
-        <v>14.45166666666668</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C31" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D31" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="E31" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F31" t="n">
-        <v>7193.9932</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>14.71333333333333</v>
+        <v>1131171.783374198</v>
       </c>
       <c r="H31" t="n">
-        <v>14.46166666666668</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C32" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D32" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E32" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F32" t="n">
-        <v>376.0068</v>
+        <v>2530</v>
       </c>
       <c r="G32" t="n">
-        <v>14.73333333333333</v>
+        <v>1131171.783374198</v>
       </c>
       <c r="H32" t="n">
-        <v>14.47166666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="F33" t="n">
-        <v>28344.6571</v>
+        <v>834</v>
       </c>
       <c r="G33" t="n">
-        <v>14.77333333333333</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H33" t="n">
-        <v>14.48500000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="C34" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="D34" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="E34" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="F34" t="n">
-        <v>24010.8107</v>
+        <v>166</v>
       </c>
       <c r="G34" t="n">
-        <v>14.82</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H34" t="n">
-        <v>14.50166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="C35" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="D35" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="F35" t="n">
-        <v>300079.4803</v>
+        <v>35700</v>
       </c>
       <c r="G35" t="n">
-        <v>14.88</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H35" t="n">
-        <v>14.52166666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="C36" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="D36" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="E36" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="F36" t="n">
-        <v>70647</v>
+        <v>91.9061</v>
       </c>
       <c r="G36" t="n">
-        <v>14.94</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H36" t="n">
-        <v>14.54333333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="C37" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="D37" t="n">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="E37" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="F37" t="n">
-        <v>11740</v>
+        <v>315</v>
       </c>
       <c r="G37" t="n">
-        <v>14.95333333333333</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H37" t="n">
-        <v>14.55500000000001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C38" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D38" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F38" t="n">
-        <v>846</v>
+        <v>117591.6494</v>
       </c>
       <c r="G38" t="n">
-        <v>14.98666666666667</v>
+        <v>1249597.432774198</v>
       </c>
       <c r="H38" t="n">
-        <v>14.57166666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C39" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D39" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E39" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F39" t="n">
-        <v>2597.8725</v>
+        <v>4611.287</v>
       </c>
       <c r="G39" t="n">
-        <v>14.99333333333333</v>
+        <v>1254208.719774198</v>
       </c>
       <c r="H39" t="n">
-        <v>14.58333333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C40" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D40" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E40" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F40" t="n">
-        <v>11258.6122</v>
+        <v>19295.7227</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>1234912.997074198</v>
       </c>
       <c r="H40" t="n">
-        <v>14.595</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="C41" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D41" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E41" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F41" t="n">
-        <v>33654.763</v>
+        <v>2078.5772</v>
       </c>
       <c r="G41" t="n">
-        <v>14.99333333333333</v>
+        <v>1232834.419874198</v>
       </c>
       <c r="H41" t="n">
-        <v>14.60166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="C42" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="D42" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E42" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="F42" t="n">
-        <v>3761.3679</v>
+        <v>4072.5</v>
       </c>
       <c r="G42" t="n">
-        <v>14.98</v>
+        <v>1228761.919874198</v>
       </c>
       <c r="H42" t="n">
-        <v>14.60833333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C43" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D43" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E43" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F43" t="n">
-        <v>46561.7585</v>
+        <v>295</v>
       </c>
       <c r="G43" t="n">
-        <v>14.96666666666667</v>
+        <v>1228761.919874198</v>
       </c>
       <c r="H43" t="n">
-        <v>14.61666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="C44" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D44" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E44" t="n">
         <v>14.4</v>
       </c>
       <c r="F44" t="n">
-        <v>175677.378</v>
+        <v>2740</v>
       </c>
       <c r="G44" t="n">
-        <v>14.96</v>
+        <v>1231501.919874198</v>
       </c>
       <c r="H44" t="n">
-        <v>14.62333333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C45" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D45" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E45" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F45" t="n">
-        <v>69307.68829999999</v>
+        <v>21970</v>
       </c>
       <c r="G45" t="n">
-        <v>14.95333333333333</v>
+        <v>1231501.919874198</v>
       </c>
       <c r="H45" t="n">
-        <v>14.63166666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C46" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D46" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E46" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F46" t="n">
-        <v>1763.6636</v>
+        <v>32598</v>
       </c>
       <c r="G46" t="n">
-        <v>14.95333333333333</v>
+        <v>1231501.919874198</v>
       </c>
       <c r="H46" t="n">
-        <v>14.64000000000001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C47" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="D47" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E47" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="F47" t="n">
-        <v>5110</v>
+        <v>525655.9225</v>
       </c>
       <c r="G47" t="n">
-        <v>14.94666666666666</v>
+        <v>705845.9973741983</v>
       </c>
       <c r="H47" t="n">
-        <v>14.64500000000001</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C48" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D48" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E48" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F48" t="n">
-        <v>38395.8134</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>14.92666666666666</v>
+        <v>705855.9973741983</v>
       </c>
       <c r="H48" t="n">
-        <v>14.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C49" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D49" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E49" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F49" t="n">
-        <v>2416.2608</v>
+        <v>5620</v>
       </c>
       <c r="G49" t="n">
-        <v>14.89333333333333</v>
+        <v>705855.9973741983</v>
       </c>
       <c r="H49" t="n">
-        <v>14.65500000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C50" t="n">
         <v>14.6</v>
       </c>
       <c r="D50" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E50" t="n">
         <v>14.6</v>
       </c>
       <c r="F50" t="n">
-        <v>47827</v>
+        <v>245</v>
       </c>
       <c r="G50" t="n">
-        <v>14.83999999999999</v>
+        <v>706100.9973741983</v>
       </c>
       <c r="H50" t="n">
-        <v>14.65833333333334</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C51" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D51" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E51" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F51" t="n">
-        <v>64733</v>
+        <v>33600</v>
       </c>
       <c r="G51" t="n">
-        <v>14.77333333333333</v>
+        <v>739700.9973741983</v>
       </c>
       <c r="H51" t="n">
-        <v>14.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2347,27 +2192,24 @@
         <v>14.6</v>
       </c>
       <c r="E52" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F52" t="n">
-        <v>23457.4931</v>
+        <v>2790.0822</v>
       </c>
       <c r="G52" t="n">
-        <v>14.75333333333333</v>
+        <v>736910.9151741983</v>
       </c>
       <c r="H52" t="n">
-        <v>14.66166666666668</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C53" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D53" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E53" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>5823.8743</v>
       </c>
       <c r="G53" t="n">
-        <v>14.72666666666666</v>
+        <v>742734.7894741984</v>
       </c>
       <c r="H53" t="n">
-        <v>14.66500000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C54" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D54" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E54" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F54" t="n">
-        <v>64542.0114</v>
+        <v>8405</v>
       </c>
       <c r="G54" t="n">
-        <v>14.69999999999999</v>
+        <v>742734.7894741984</v>
       </c>
       <c r="H54" t="n">
-        <v>14.66500000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="C55" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="D55" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E55" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="F55" t="n">
-        <v>2713.0929</v>
+        <v>95766.2781</v>
       </c>
       <c r="G55" t="n">
-        <v>14.67333333333332</v>
+        <v>838501.0675741984</v>
       </c>
       <c r="H55" t="n">
-        <v>14.66833333333335</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="C56" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D56" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="E56" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>4800</v>
       </c>
       <c r="G56" t="n">
-        <v>14.65999999999999</v>
+        <v>838501.0675741984</v>
       </c>
       <c r="H56" t="n">
-        <v>14.67333333333335</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>14.65999999999999</v>
+        <v>839501.0675741984</v>
       </c>
       <c r="H57" t="n">
-        <v>14.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C58" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D58" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F58" t="n">
-        <v>300</v>
+        <v>24401.0367</v>
       </c>
       <c r="G58" t="n">
-        <v>14.64666666666666</v>
+        <v>815100.0308741983</v>
       </c>
       <c r="H58" t="n">
-        <v>14.68500000000001</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C59" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D59" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="E59" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F59" t="n">
-        <v>5226.9999</v>
+        <v>1308</v>
       </c>
       <c r="G59" t="n">
-        <v>14.63999999999999</v>
+        <v>816408.0308741983</v>
       </c>
       <c r="H59" t="n">
-        <v>14.69000000000002</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C60" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D60" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E60" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F60" t="n">
-        <v>24000</v>
+        <v>7193.9932</v>
       </c>
       <c r="G60" t="n">
-        <v>14.62666666666666</v>
+        <v>809214.0376741983</v>
       </c>
       <c r="H60" t="n">
-        <v>14.69500000000002</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C61" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D61" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E61" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F61" t="n">
-        <v>122897.97</v>
+        <v>376.0068</v>
       </c>
       <c r="G61" t="n">
-        <v>14.61333333333332</v>
+        <v>809214.0376741983</v>
       </c>
       <c r="H61" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0027</v>
+        <v>28344.6571</v>
       </c>
       <c r="G62" t="n">
-        <v>14.60666666666665</v>
+        <v>837558.6947741982</v>
       </c>
       <c r="H62" t="n">
-        <v>14.70166666666669</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="C63" t="n">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="D63" t="n">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="E63" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="F63" t="n">
-        <v>1985.061</v>
+        <v>24010.8107</v>
       </c>
       <c r="G63" t="n">
-        <v>14.59333333333332</v>
+        <v>861569.5054741983</v>
       </c>
       <c r="H63" t="n">
-        <v>14.70333333333335</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="C64" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="D64" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="E64" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>18047.602</v>
+        <v>300079.4803</v>
       </c>
       <c r="G64" t="n">
-        <v>14.58666666666666</v>
+        <v>1161648.985774198</v>
       </c>
       <c r="H64" t="n">
-        <v>14.70500000000002</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="C65" t="n">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="D65" t="n">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="E65" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="F65" t="n">
-        <v>7210.5308</v>
+        <v>70647</v>
       </c>
       <c r="G65" t="n">
-        <v>14.58666666666666</v>
+        <v>1232295.985774198</v>
       </c>
       <c r="H65" t="n">
-        <v>14.70666666666669</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="C66" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D66" t="n">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="E66" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="F66" t="n">
-        <v>3908.4996</v>
+        <v>11740</v>
       </c>
       <c r="G66" t="n">
-        <v>14.59333333333332</v>
+        <v>1220555.985774198</v>
       </c>
       <c r="H66" t="n">
-        <v>14.70833333333335</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="D67" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="E67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>3977.2985</v>
+        <v>846</v>
       </c>
       <c r="G67" t="n">
-        <v>14.58666666666666</v>
+        <v>1221401.985774198</v>
       </c>
       <c r="H67" t="n">
-        <v>14.70833333333335</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="C68" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="D68" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E68" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="F68" t="n">
-        <v>1984.281</v>
+        <v>2597.8725</v>
       </c>
       <c r="G68" t="n">
-        <v>14.57333333333332</v>
+        <v>1218804.113274198</v>
       </c>
       <c r="H68" t="n">
-        <v>14.70833333333335</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="C69" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="D69" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E69" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="F69" t="n">
-        <v>2994.65</v>
+        <v>11258.6122</v>
       </c>
       <c r="G69" t="n">
-        <v>14.57333333333332</v>
+        <v>1218804.113274198</v>
       </c>
       <c r="H69" t="n">
-        <v>14.70500000000002</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="C70" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D70" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E70" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F70" t="n">
-        <v>1988.6492</v>
+        <v>33654.763</v>
       </c>
       <c r="G70" t="n">
-        <v>14.57333333333332</v>
+        <v>1185149.350274198</v>
       </c>
       <c r="H70" t="n">
-        <v>14.70000000000002</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="C71" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D71" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E71" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F71" t="n">
-        <v>18400</v>
+        <v>3761.3679</v>
       </c>
       <c r="G71" t="n">
-        <v>14.56666666666666</v>
+        <v>1181387.982374198</v>
       </c>
       <c r="H71" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="C72" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D72" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E72" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F72" t="n">
-        <v>13620.1774</v>
+        <v>46561.7585</v>
       </c>
       <c r="G72" t="n">
-        <v>14.55333333333332</v>
+        <v>1227949.740874198</v>
       </c>
       <c r="H72" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="C73" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="D73" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="E73" t="n">
         <v>14.4</v>
       </c>
       <c r="F73" t="n">
-        <v>17117.3038</v>
+        <v>175677.378</v>
       </c>
       <c r="G73" t="n">
-        <v>14.53999999999999</v>
+        <v>1052272.362874198</v>
       </c>
       <c r="H73" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C74" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D74" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="E74" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F74" t="n">
-        <v>72702.3023</v>
+        <v>69307.68829999999</v>
       </c>
       <c r="G74" t="n">
-        <v>14.52666666666666</v>
+        <v>1121580.051174198</v>
       </c>
       <c r="H74" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="C75" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D75" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E75" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F75" t="n">
-        <v>2680</v>
+        <v>1763.6636</v>
       </c>
       <c r="G75" t="n">
-        <v>14.51999999999999</v>
+        <v>1121580.051174198</v>
       </c>
       <c r="H75" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C76" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D76" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E76" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F76" t="n">
-        <v>20600</v>
+        <v>5110</v>
       </c>
       <c r="G76" t="n">
-        <v>14.51333333333333</v>
+        <v>1116470.051174198</v>
       </c>
       <c r="H76" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C77" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="D77" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E77" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F77" t="n">
-        <v>44454.5683</v>
+        <v>38395.8134</v>
       </c>
       <c r="G77" t="n">
-        <v>14.49999999999999</v>
+        <v>1116470.051174198</v>
       </c>
       <c r="H77" t="n">
-        <v>14.69666666666669</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C78" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D78" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E78" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F78" t="n">
-        <v>1979.4447</v>
+        <v>2416.2608</v>
       </c>
       <c r="G78" t="n">
-        <v>14.49999999999999</v>
+        <v>1116470.051174198</v>
       </c>
       <c r="H78" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="C79" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D79" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="E79" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F79" t="n">
-        <v>3989.0186</v>
+        <v>47827</v>
       </c>
       <c r="G79" t="n">
-        <v>14.48666666666666</v>
+        <v>1068643.051174198</v>
       </c>
       <c r="H79" t="n">
-        <v>14.69666666666669</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C80" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D80" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E80" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F80" t="n">
-        <v>18537.449</v>
+        <v>64733</v>
       </c>
       <c r="G80" t="n">
-        <v>14.47333333333333</v>
+        <v>1003910.051174198</v>
       </c>
       <c r="H80" t="n">
-        <v>14.69500000000002</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C81" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D81" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E81" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F81" t="n">
-        <v>688.9583</v>
+        <v>23457.4931</v>
       </c>
       <c r="G81" t="n">
-        <v>14.46</v>
+        <v>1027367.544274198</v>
       </c>
       <c r="H81" t="n">
-        <v>14.69166666666669</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C82" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D82" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E82" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F82" t="n">
-        <v>3040</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>14.46</v>
+        <v>1027467.544274198</v>
       </c>
       <c r="H82" t="n">
-        <v>14.68833333333335</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C83" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D83" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E83" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F83" t="n">
-        <v>1397.2159</v>
+        <v>64542.0114</v>
       </c>
       <c r="G83" t="n">
-        <v>14.45333333333333</v>
+        <v>962925.5328741983</v>
       </c>
       <c r="H83" t="n">
-        <v>14.68500000000002</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C84" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D84" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E84" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F84" t="n">
-        <v>9296.386200000001</v>
+        <v>2713.0929</v>
       </c>
       <c r="G84" t="n">
-        <v>14.44666666666666</v>
+        <v>962925.5328741983</v>
       </c>
       <c r="H84" t="n">
-        <v>14.67833333333335</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C85" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D85" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E85" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F85" t="n">
-        <v>21378.6134</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>14.44666666666666</v>
+        <v>962945.5328741983</v>
       </c>
       <c r="H85" t="n">
-        <v>14.67333333333335</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C86" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D86" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E86" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F86" t="n">
-        <v>20800</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>14.44666666666666</v>
+        <v>963045.5328741983</v>
       </c>
       <c r="H86" t="n">
-        <v>14.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C87" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D87" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E87" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F87" t="n">
-        <v>1963.8438</v>
+        <v>300</v>
       </c>
       <c r="G87" t="n">
-        <v>14.44666666666666</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H87" t="n">
-        <v>14.66000000000002</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C88" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D88" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E88" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F88" t="n">
-        <v>17305</v>
+        <v>5226.9999</v>
       </c>
       <c r="G88" t="n">
-        <v>14.45333333333333</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H88" t="n">
-        <v>14.65166666666669</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C89" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D89" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E89" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F89" t="n">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="G89" t="n">
-        <v>14.46</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H89" t="n">
-        <v>14.64666666666669</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C90" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D90" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E90" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>122897.97</v>
       </c>
       <c r="G90" t="n">
-        <v>14.46</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H90" t="n">
-        <v>14.64000000000002</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C91" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D91" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E91" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>0.0027</v>
       </c>
       <c r="G91" t="n">
-        <v>14.46</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H91" t="n">
-        <v>14.63500000000002</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C92" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D92" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E92" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F92" t="n">
-        <v>12900.5166</v>
+        <v>1985.061</v>
       </c>
       <c r="G92" t="n">
-        <v>14.47333333333333</v>
+        <v>960760.4718741983</v>
       </c>
       <c r="H92" t="n">
-        <v>14.63166666666669</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C93" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D93" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E93" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F93" t="n">
-        <v>22000</v>
+        <v>18047.602</v>
       </c>
       <c r="G93" t="n">
-        <v>14.48666666666666</v>
+        <v>978808.0738741982</v>
       </c>
       <c r="H93" t="n">
-        <v>14.62666666666669</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C94" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D94" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E94" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F94" t="n">
-        <v>42584.0367</v>
+        <v>7210.5308</v>
       </c>
       <c r="G94" t="n">
-        <v>14.50666666666666</v>
+        <v>978808.0738741982</v>
       </c>
       <c r="H94" t="n">
-        <v>14.61833333333336</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,24 +3700,21 @@
         <v>14.6</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>3908.4996</v>
       </c>
       <c r="G95" t="n">
-        <v>14.51999999999999</v>
+        <v>978808.0738741982</v>
       </c>
       <c r="H95" t="n">
-        <v>14.60500000000002</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C96" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D96" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E96" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>3977.2985</v>
       </c>
       <c r="G96" t="n">
-        <v>14.53333333333333</v>
+        <v>974830.7753741982</v>
       </c>
       <c r="H96" t="n">
-        <v>14.59000000000002</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C97" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D97" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E97" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F97" t="n">
-        <v>30802.72108843537</v>
+        <v>1984.281</v>
       </c>
       <c r="G97" t="n">
-        <v>14.53999999999999</v>
+        <v>974830.7753741982</v>
       </c>
       <c r="H97" t="n">
-        <v>14.58500000000003</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C98" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D98" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E98" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F98" t="n">
-        <v>14972.2675</v>
+        <v>2994.65</v>
       </c>
       <c r="G98" t="n">
-        <v>14.55333333333332</v>
+        <v>974830.7753741982</v>
       </c>
       <c r="H98" t="n">
-        <v>14.57666666666669</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C99" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D99" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E99" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F99" t="n">
-        <v>6802.721088435374</v>
+        <v>1988.6492</v>
       </c>
       <c r="G99" t="n">
-        <v>14.57333333333332</v>
+        <v>974830.7753741982</v>
       </c>
       <c r="H99" t="n">
-        <v>14.57333333333336</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C100" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D100" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E100" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F100" t="n">
-        <v>23634</v>
+        <v>18400</v>
       </c>
       <c r="G100" t="n">
-        <v>14.57999999999999</v>
+        <v>974830.7753741982</v>
       </c>
       <c r="H100" t="n">
-        <v>14.56833333333336</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C101" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D101" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E101" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F101" t="n">
-        <v>3980</v>
+        <v>13620.1774</v>
       </c>
       <c r="G101" t="n">
-        <v>14.58666666666666</v>
+        <v>974830.7753741982</v>
       </c>
       <c r="H101" t="n">
-        <v>14.56500000000003</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="C102" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="D102" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="E102" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="F102" t="n">
-        <v>8163.265306122449</v>
+        <v>17117.3038</v>
       </c>
       <c r="G102" t="n">
-        <v>14.59999999999999</v>
+        <v>957713.4715741982</v>
       </c>
       <c r="H102" t="n">
-        <v>14.56500000000003</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="C103" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D103" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="E103" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F103" t="n">
-        <v>6248.360544217687</v>
+        <v>72702.3023</v>
       </c>
       <c r="G103" t="n">
-        <v>14.60666666666665</v>
+        <v>957713.4715741982</v>
       </c>
       <c r="H103" t="n">
-        <v>14.5616666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C104" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D104" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E104" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F104" t="n">
-        <v>24868</v>
+        <v>2680</v>
       </c>
       <c r="G104" t="n">
-        <v>14.61333333333332</v>
+        <v>960393.4715741982</v>
       </c>
       <c r="H104" t="n">
-        <v>14.56000000000003</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4038,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C105" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D105" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E105" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F105" t="n">
-        <v>11896.1755</v>
+        <v>20600</v>
       </c>
       <c r="G105" t="n">
-        <v>14.61999999999999</v>
+        <v>960393.4715741982</v>
       </c>
       <c r="H105" t="n">
-        <v>14.5566666666667</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K105" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4077,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C106" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D106" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E106" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>44454.5683</v>
       </c>
       <c r="G106" t="n">
-        <v>14.62666666666665</v>
+        <v>915938.9032741982</v>
       </c>
       <c r="H106" t="n">
-        <v>14.55333333333336</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4118,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C107" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D107" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E107" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F107" t="n">
-        <v>27334.557</v>
+        <v>1979.4447</v>
       </c>
       <c r="G107" t="n">
-        <v>14.62666666666665</v>
+        <v>917918.3479741982</v>
       </c>
       <c r="H107" t="n">
-        <v>14.5516666666667</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4161,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C108" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D108" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E108" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F108" t="n">
-        <v>19800</v>
+        <v>3989.0186</v>
       </c>
       <c r="G108" t="n">
-        <v>14.61999999999999</v>
+        <v>913929.3293741982</v>
       </c>
       <c r="H108" t="n">
-        <v>14.55000000000003</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4202,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C109" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D109" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E109" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F109" t="n">
-        <v>1984.8184</v>
+        <v>18537.449</v>
       </c>
       <c r="G109" t="n">
-        <v>14.60666666666665</v>
+        <v>913929.3293741982</v>
       </c>
       <c r="H109" t="n">
-        <v>14.5466666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4243,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C110" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D110" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E110" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F110" t="n">
-        <v>100</v>
+        <v>688.9583</v>
       </c>
       <c r="G110" t="n">
-        <v>14.60666666666665</v>
+        <v>913929.3293741982</v>
       </c>
       <c r="H110" t="n">
-        <v>14.5466666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4592,24 +4296,27 @@
         <v>14.5</v>
       </c>
       <c r="F111" t="n">
-        <v>58951.5175</v>
+        <v>3040</v>
       </c>
       <c r="G111" t="n">
-        <v>14.59999999999999</v>
+        <v>916969.3293741982</v>
       </c>
       <c r="H111" t="n">
-        <v>14.5466666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,24 +4337,27 @@
         <v>14.4</v>
       </c>
       <c r="F112" t="n">
-        <v>898.4825</v>
+        <v>1397.2159</v>
       </c>
       <c r="G112" t="n">
-        <v>14.58666666666666</v>
+        <v>915572.1134741983</v>
       </c>
       <c r="H112" t="n">
-        <v>14.54333333333336</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4366,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C113" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D113" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E113" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>9296.386200000001</v>
       </c>
       <c r="G113" t="n">
-        <v>14.58666666666666</v>
+        <v>915572.1134741983</v>
       </c>
       <c r="H113" t="n">
-        <v>14.54166666666669</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4407,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C114" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D114" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E114" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F114" t="n">
-        <v>4480</v>
+        <v>21378.6134</v>
       </c>
       <c r="G114" t="n">
-        <v>14.56666666666666</v>
+        <v>936950.7268741983</v>
       </c>
       <c r="H114" t="n">
-        <v>14.54000000000003</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,33 +4451,36 @@
         <v>14.5</v>
       </c>
       <c r="C115" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D115" t="n">
         <v>14.5</v>
       </c>
       <c r="E115" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F115" t="n">
-        <v>65371.6852</v>
+        <v>20800</v>
       </c>
       <c r="G115" t="n">
-        <v>14.55333333333332</v>
+        <v>936950.7268741983</v>
       </c>
       <c r="H115" t="n">
-        <v>14.53833333333336</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4489,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C116" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D116" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E116" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F116" t="n">
-        <v>5885.9352</v>
+        <v>1963.8438</v>
       </c>
       <c r="G116" t="n">
-        <v>14.53999999999999</v>
+        <v>936950.7268741983</v>
       </c>
       <c r="H116" t="n">
-        <v>14.53500000000003</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,24 +4542,27 @@
         <v>14.5</v>
       </c>
       <c r="F117" t="n">
-        <v>105658.7256</v>
+        <v>17305</v>
       </c>
       <c r="G117" t="n">
-        <v>14.52666666666666</v>
+        <v>936950.7268741983</v>
       </c>
       <c r="H117" t="n">
-        <v>14.53166666666669</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4571,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C118" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D118" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E118" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F118" t="n">
-        <v>21000</v>
+        <v>50000</v>
       </c>
       <c r="G118" t="n">
-        <v>14.51333333333333</v>
+        <v>936950.7268741983</v>
       </c>
       <c r="H118" t="n">
-        <v>14.52833333333336</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,24 +4624,27 @@
         <v>14.5</v>
       </c>
       <c r="F119" t="n">
-        <v>6004.3968</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>14.50666666666666</v>
+        <v>936950.7268741983</v>
       </c>
       <c r="H119" t="n">
-        <v>14.52666666666669</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4653,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C120" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D120" t="n">
         <v>14.5</v>
       </c>
       <c r="E120" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F120" t="n">
-        <v>27421.405</v>
+        <v>20</v>
       </c>
       <c r="G120" t="n">
-        <v>14.49333333333333</v>
+        <v>936950.7268741983</v>
       </c>
       <c r="H120" t="n">
-        <v>14.52333333333336</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4694,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="C121" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="D121" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="E121" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>12900.5166</v>
       </c>
       <c r="G121" t="n">
-        <v>14.47333333333333</v>
+        <v>949851.2434741983</v>
       </c>
       <c r="H121" t="n">
-        <v>14.51833333333336</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4735,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C122" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D122" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E122" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F122" t="n">
-        <v>194448</v>
+        <v>22000</v>
       </c>
       <c r="G122" t="n">
-        <v>14.46666666666666</v>
+        <v>971851.2434741983</v>
       </c>
       <c r="H122" t="n">
-        <v>14.51666666666669</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4776,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="C123" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="D123" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="E123" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="F123" t="n">
-        <v>21527.0138</v>
+        <v>42584.0367</v>
       </c>
       <c r="G123" t="n">
-        <v>14.44666666666666</v>
+        <v>971851.2434741983</v>
       </c>
       <c r="H123" t="n">
-        <v>14.51333333333335</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4817,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C124" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D124" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E124" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F124" t="n">
-        <v>3329.0837</v>
+        <v>20</v>
       </c>
       <c r="G124" t="n">
-        <v>14.44666666666666</v>
+        <v>971831.2434741983</v>
       </c>
       <c r="H124" t="n">
-        <v>14.51166666666669</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4858,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C125" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D125" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E125" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F125" t="n">
-        <v>1780.8695</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>14.43333333333333</v>
+        <v>971831.2434741983</v>
       </c>
       <c r="H125" t="n">
-        <v>14.50833333333335</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4899,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="C126" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="D126" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="E126" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="F126" t="n">
-        <v>211768</v>
+        <v>30802.72108843537</v>
       </c>
       <c r="G126" t="n">
-        <v>14.41333333333333</v>
+        <v>971831.2434741983</v>
       </c>
       <c r="H126" t="n">
-        <v>14.50166666666669</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,40 +4940,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="C127" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="D127" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="E127" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="F127" t="n">
-        <v>52366.763</v>
+        <v>14972.2675</v>
       </c>
       <c r="G127" t="n">
-        <v>14.39333333333333</v>
+        <v>971831.2434741983</v>
       </c>
       <c r="H127" t="n">
-        <v>14.49500000000002</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="L127" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5230,44 +4981,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="C128" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="D128" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="E128" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="F128" t="n">
-        <v>5801.2845</v>
+        <v>6802.721088435374</v>
       </c>
       <c r="G128" t="n">
-        <v>14.36666666666666</v>
+        <v>978633.9645626337</v>
       </c>
       <c r="H128" t="n">
-        <v>14.49000000000002</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L128" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5276,44 +5022,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="C129" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="D129" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="E129" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="F129" t="n">
-        <v>5968.7707</v>
+        <v>23634</v>
       </c>
       <c r="G129" t="n">
-        <v>14.35333333333333</v>
+        <v>954999.9645626337</v>
       </c>
       <c r="H129" t="n">
-        <v>14.48500000000002</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="L129" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,44 +5063,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="C130" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="D130" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="E130" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="F130" t="n">
-        <v>3000.0933</v>
+        <v>3980</v>
       </c>
       <c r="G130" t="n">
-        <v>14.33999999999999</v>
+        <v>954999.9645626337</v>
       </c>
       <c r="H130" t="n">
-        <v>14.48000000000002</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="L130" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="M130" t="inlineStr">
+        <v>14.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5368,44 +5104,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>14.1</v>
+        <v>14.7</v>
       </c>
       <c r="C131" t="n">
-        <v>14.1</v>
+        <v>14.7</v>
       </c>
       <c r="D131" t="n">
-        <v>14.1</v>
+        <v>14.7</v>
       </c>
       <c r="E131" t="n">
-        <v>14.1</v>
+        <v>14.7</v>
       </c>
       <c r="F131" t="n">
-        <v>9671.810799999999</v>
+        <v>8163.265306122449</v>
       </c>
       <c r="G131" t="n">
-        <v>14.31999999999999</v>
+        <v>963163.2298687561</v>
       </c>
       <c r="H131" t="n">
-        <v>14.47333333333336</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="L131" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="M131" t="inlineStr">
+        <v>14.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,44 +5145,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>14.1</v>
+        <v>14.7</v>
       </c>
       <c r="C132" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="D132" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="E132" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="F132" t="n">
-        <v>76985.99189999999</v>
+        <v>6248.360544217687</v>
       </c>
       <c r="G132" t="n">
-        <v>14.29333333333333</v>
+        <v>956914.8693245385</v>
       </c>
       <c r="H132" t="n">
-        <v>14.46666666666669</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L132" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="M132" t="inlineStr">
+        <v>14.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5460,44 +5186,1244 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>24868</v>
+      </c>
+      <c r="G133" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11896.1755</v>
+      </c>
+      <c r="G134" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>27334.557</v>
+      </c>
+      <c r="G136" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19800</v>
+      </c>
+      <c r="G137" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1984.8184</v>
+      </c>
+      <c r="G138" t="n">
+        <v>954930.0509245385</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100</v>
+      </c>
+      <c r="G139" t="n">
+        <v>955030.0509245385</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>58951.5175</v>
+      </c>
+      <c r="G140" t="n">
+        <v>896078.5334245386</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>898.4825</v>
+      </c>
+      <c r="G141" t="n">
+        <v>895180.0509245385</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>895190.0509245385</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4480</v>
+      </c>
+      <c r="G143" t="n">
+        <v>890710.0509245385</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>65371.6852</v>
+      </c>
+      <c r="G144" t="n">
+        <v>890710.0509245385</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5885.9352</v>
+      </c>
+      <c r="G145" t="n">
+        <v>890710.0509245385</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>105658.7256</v>
+      </c>
+      <c r="G146" t="n">
+        <v>996368.7765245385</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>975368.7765245385</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6004.3968</v>
+      </c>
+      <c r="G148" t="n">
+        <v>981373.1733245385</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>27421.405</v>
+      </c>
+      <c r="G149" t="n">
+        <v>953951.7683245385</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>20</v>
+      </c>
+      <c r="G150" t="n">
+        <v>953931.7683245385</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>194448</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1148379.768324539</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K151" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>21527.0138</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1126852.754524539</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3329.0837</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1130181.838224539</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1780.8695</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1128400.968724539</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C155" t="n">
         <v>14.2</v>
       </c>
-      <c r="C133" t="n">
+      <c r="D155" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E155" t="n">
         <v>14.2</v>
       </c>
-      <c r="D133" t="n">
+      <c r="F155" t="n">
+        <v>211768</v>
+      </c>
+      <c r="G155" t="n">
+        <v>916632.9687245386</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>52366.763</v>
+      </c>
+      <c r="G156" t="n">
+        <v>864266.2057245385</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
         <v>14.2</v>
       </c>
-      <c r="E133" t="n">
+      <c r="K156" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
         <v>14.2</v>
       </c>
-      <c r="F133" t="n">
+      <c r="C157" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5801.2845</v>
+      </c>
+      <c r="G157" t="n">
+        <v>870067.4902245385</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5968.7707</v>
+      </c>
+      <c r="G158" t="n">
+        <v>870067.4902245385</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3000.0933</v>
+      </c>
+      <c r="G159" t="n">
+        <v>870067.4902245385</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9671.810799999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>860395.6794245385</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>76985.99189999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>860395.6794245385</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F162" t="n">
         <v>6600</v>
       </c>
-      <c r="G133" t="n">
-        <v>14.27999999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>14.46333333333336</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
+      <c r="G162" t="n">
+        <v>866995.6794245385</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
         <v>14.1</v>
       </c>
-      <c r="L133" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="M133" t="inlineStr">
+      <c r="K162" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N133" t="n">
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="D2" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="E2" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="F2" t="n">
-        <v>37861.2403</v>
+        <v>2740</v>
       </c>
       <c r="G2" t="n">
-        <v>950948.6880293706</v>
+        <v>14.48</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="C3" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="D3" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="E3" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="F3" t="n">
-        <v>7546.6017</v>
+        <v>21970</v>
       </c>
       <c r="G3" t="n">
-        <v>950948.6880293706</v>
+        <v>14.46</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="C4" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="E4" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="F4" t="n">
-        <v>27086.9699</v>
+        <v>32598</v>
       </c>
       <c r="G4" t="n">
-        <v>950948.6880293706</v>
+        <v>14.46</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="C5" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="D5" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="E5" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F5" t="n">
-        <v>6449.8736</v>
+        <v>525655.9225</v>
       </c>
       <c r="G5" t="n">
-        <v>950948.6880293706</v>
+        <v>14.46</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="D6" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="E6" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="F6" t="n">
-        <v>27447.8546</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>950948.6880293706</v>
+        <v>14.48</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="C7" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="D7" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="E7" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="F7" t="n">
-        <v>35678.5872</v>
+        <v>5620</v>
       </c>
       <c r="G7" t="n">
-        <v>915270.1008293707</v>
+        <v>14.48</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="C8" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="D8" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="E8" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="F8" t="n">
-        <v>45800</v>
+        <v>245</v>
       </c>
       <c r="G8" t="n">
-        <v>961070.1008293707</v>
+        <v>14.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="C9" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="D9" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="E9" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="F9" t="n">
-        <v>100000</v>
+        <v>33600</v>
       </c>
       <c r="G9" t="n">
-        <v>961070.1008293707</v>
+        <v>14.54</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D10" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E10" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F10" t="n">
-        <v>40184.3052</v>
+        <v>2790.0822</v>
       </c>
       <c r="G10" t="n">
-        <v>1001254.406029371</v>
+        <v>14.58</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="D11" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="E11" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="F11" t="n">
-        <v>2234.3234</v>
+        <v>5823.8743</v>
       </c>
       <c r="G11" t="n">
-        <v>999020.0826293706</v>
+        <v>14.64</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="D12" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="E12" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="F12" t="n">
-        <v>5268</v>
+        <v>8405</v>
       </c>
       <c r="G12" t="n">
-        <v>999020.0826293706</v>
+        <v>14.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="D13" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="E13" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="F13" t="n">
-        <v>28800</v>
+        <v>95766.2781</v>
       </c>
       <c r="G13" t="n">
-        <v>999020.0826293706</v>
+        <v>14.76</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="C14" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="D14" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="E14" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="F14" t="n">
-        <v>21433.2117</v>
+        <v>4800</v>
       </c>
       <c r="G14" t="n">
-        <v>999020.0826293706</v>
+        <v>14.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>117315.515</v>
+        <v>1000</v>
       </c>
       <c r="G15" t="n">
-        <v>999020.0826293706</v>
+        <v>14.88</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="C16" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D16" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="F16" t="n">
-        <v>73641.1176</v>
+        <v>24401.0367</v>
       </c>
       <c r="G16" t="n">
-        <v>1072661.200229371</v>
+        <v>14.88</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="D17" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="E17" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="F17" t="n">
-        <v>78800</v>
+        <v>1308</v>
       </c>
       <c r="G17" t="n">
-        <v>1072661.200229371</v>
+        <v>14.90000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="C18" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D18" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="E18" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="F18" t="n">
-        <v>1399.2361</v>
+        <v>7193.9932</v>
       </c>
       <c r="G18" t="n">
-        <v>1072661.200229371</v>
+        <v>14.88</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="C19" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D19" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="E19" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="F19" t="n">
-        <v>18600</v>
+        <v>376.0068</v>
       </c>
       <c r="G19" t="n">
-        <v>1072661.200229371</v>
+        <v>14.86</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>1390</v>
+        <v>28344.6571</v>
       </c>
       <c r="G20" t="n">
-        <v>1072661.200229371</v>
+        <v>14.86</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="C21" t="n">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="D21" t="n">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="E21" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="F21" t="n">
-        <v>1379.310344827586</v>
+        <v>24010.8107</v>
       </c>
       <c r="G21" t="n">
-        <v>1074040.510574198</v>
+        <v>14.94</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="C22" t="n">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
       <c r="D22" t="n">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
       <c r="E22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>37851.1034</v>
+        <v>300079.4803</v>
       </c>
       <c r="G22" t="n">
-        <v>1074040.510574198</v>
+        <v>15.04</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
       <c r="C23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="D23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="E23" t="n">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
       <c r="F23" t="n">
-        <v>21000</v>
+        <v>70647</v>
       </c>
       <c r="G23" t="n">
-        <v>1074040.510574198</v>
+        <v>15.18</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="C24" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="D24" t="n">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="E24" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="F24" t="n">
-        <v>1790.4873</v>
+        <v>11740</v>
       </c>
       <c r="G24" t="n">
-        <v>1072250.023274198</v>
+        <v>15.20000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="D25" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="E25" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>400</v>
+        <v>846</v>
       </c>
       <c r="G25" t="n">
-        <v>1072250.023274198</v>
+        <v>15.22</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="C26" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="D26" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="E26" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="F26" t="n">
-        <v>38600</v>
+        <v>2597.8725</v>
       </c>
       <c r="G26" t="n">
-        <v>1072250.023274198</v>
+        <v>15.16000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="C27" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="D27" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="E27" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="F27" t="n">
-        <v>17278.4622</v>
+        <v>11258.6122</v>
       </c>
       <c r="G27" t="n">
-        <v>1072250.023274198</v>
+        <v>15.06000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="C28" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="D28" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="E28" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="F28" t="n">
-        <v>24040</v>
+        <v>33654.763</v>
       </c>
       <c r="G28" t="n">
-        <v>1072250.023274198</v>
+        <v>14.92000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="C29" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="D29" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="E29" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="F29" t="n">
-        <v>52648</v>
+        <v>3761.3679</v>
       </c>
       <c r="G29" t="n">
-        <v>1072250.023274198</v>
+        <v>14.88</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="C30" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D30" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="E30" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="F30" t="n">
-        <v>58921.7601</v>
+        <v>46561.7585</v>
       </c>
       <c r="G30" t="n">
-        <v>1131171.783374198</v>
+        <v>14.82</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="C31" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="D31" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="E31" t="n">
         <v>14.4</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>175677.378</v>
       </c>
       <c r="G31" t="n">
-        <v>1131171.783374198</v>
+        <v>14.78</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C32" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D32" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E32" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F32" t="n">
-        <v>2530</v>
+        <v>69307.68829999999</v>
       </c>
       <c r="G32" t="n">
-        <v>1131171.783374198</v>
+        <v>14.76</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="C33" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D33" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E33" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="F33" t="n">
-        <v>834</v>
+        <v>1763.6636</v>
       </c>
       <c r="G33" t="n">
-        <v>1132005.783374198</v>
+        <v>14.76</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C34" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D34" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E34" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F34" t="n">
-        <v>166</v>
+        <v>5110</v>
       </c>
       <c r="G34" t="n">
-        <v>1132005.783374198</v>
+        <v>14.76</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C35" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D35" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E35" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F35" t="n">
-        <v>35700</v>
+        <v>38395.8134</v>
       </c>
       <c r="G35" t="n">
-        <v>1132005.783374198</v>
+        <v>14.74</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C36" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D36" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E36" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F36" t="n">
-        <v>91.9061</v>
+        <v>2416.2608</v>
       </c>
       <c r="G36" t="n">
-        <v>1132005.783374198</v>
+        <v>14.74</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C37" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D37" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E37" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F37" t="n">
-        <v>315</v>
+        <v>47827</v>
       </c>
       <c r="G37" t="n">
-        <v>1132005.783374198</v>
+        <v>14.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1696,19 +1737,19 @@
         <v>14.6</v>
       </c>
       <c r="C38" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D38" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E38" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F38" t="n">
-        <v>117591.6494</v>
+        <v>64733</v>
       </c>
       <c r="G38" t="n">
-        <v>1249597.432774198</v>
+        <v>14.64</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C39" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D39" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E39" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F39" t="n">
-        <v>4611.287</v>
+        <v>23457.4931</v>
       </c>
       <c r="G39" t="n">
-        <v>1254208.719774198</v>
+        <v>14.62</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C40" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D40" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E40" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F40" t="n">
-        <v>19295.7227</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>1234912.997074198</v>
+        <v>14.62</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C41" t="n">
         <v>14.5</v>
       </c>
       <c r="D41" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E41" t="n">
         <v>14.5</v>
       </c>
       <c r="F41" t="n">
-        <v>2078.5772</v>
+        <v>64542.0114</v>
       </c>
       <c r="G41" t="n">
-        <v>1232834.419874198</v>
+        <v>14.58</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C42" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D42" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E42" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F42" t="n">
-        <v>4072.5</v>
+        <v>2713.0929</v>
       </c>
       <c r="G42" t="n">
-        <v>1228761.919874198</v>
+        <v>14.56</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C43" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D43" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E43" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F43" t="n">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="G43" t="n">
-        <v>1228761.919874198</v>
+        <v>14.58</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="C44" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D44" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E44" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="F44" t="n">
-        <v>2740</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>1231501.919874198</v>
+        <v>14.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C45" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D45" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E45" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F45" t="n">
-        <v>21970</v>
+        <v>300</v>
       </c>
       <c r="G45" t="n">
-        <v>1231501.919874198</v>
+        <v>14.58</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1976,19 +2025,19 @@
         <v>14.6</v>
       </c>
       <c r="C46" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D46" t="n">
         <v>14.6</v>
       </c>
       <c r="E46" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F46" t="n">
-        <v>32598</v>
+        <v>5226.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>1231501.919874198</v>
+        <v>14.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C47" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D47" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E47" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="F47" t="n">
-        <v>525655.9225</v>
+        <v>24000</v>
       </c>
       <c r="G47" t="n">
-        <v>705845.9973741983</v>
+        <v>14.62</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C48" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D48" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E48" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>122897.97</v>
       </c>
       <c r="G48" t="n">
-        <v>705855.9973741983</v>
+        <v>14.62</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2081,19 +2133,19 @@
         <v>14.6</v>
       </c>
       <c r="C49" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D49" t="n">
         <v>14.6</v>
       </c>
       <c r="E49" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F49" t="n">
-        <v>5620</v>
+        <v>0.0027</v>
       </c>
       <c r="G49" t="n">
-        <v>705855.9973741983</v>
+        <v>14.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,76 +2159,91 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C50" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D50" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E50" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F50" t="n">
-        <v>245</v>
+        <v>1985.061</v>
       </c>
       <c r="G50" t="n">
-        <v>706100.9973741983</v>
+        <v>14.58</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>14.6</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C51" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D51" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E51" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F51" t="n">
-        <v>33600</v>
+        <v>18047.602</v>
       </c>
       <c r="G51" t="n">
-        <v>739700.9973741983</v>
+        <v>14.58</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2195,535 +2262,650 @@
         <v>14.6</v>
       </c>
       <c r="F52" t="n">
-        <v>2790.0822</v>
+        <v>7210.5308</v>
       </c>
       <c r="G52" t="n">
-        <v>736910.9151741983</v>
+        <v>14.58</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C53" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D53" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E53" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F53" t="n">
-        <v>5823.8743</v>
+        <v>3908.4996</v>
       </c>
       <c r="G53" t="n">
-        <v>742734.7894741984</v>
+        <v>14.58</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K53" t="n">
+        <v>14.6</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C54" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D54" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E54" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F54" t="n">
-        <v>8405</v>
+        <v>3977.2985</v>
       </c>
       <c r="G54" t="n">
-        <v>742734.7894741984</v>
+        <v>14.56</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K54" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="C55" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="D55" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E55" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="F55" t="n">
-        <v>95766.2781</v>
+        <v>1984.281</v>
       </c>
       <c r="G55" t="n">
-        <v>838501.0675741984</v>
+        <v>14.56</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="C56" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="D56" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E56" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="F56" t="n">
-        <v>4800</v>
+        <v>2994.65</v>
       </c>
       <c r="G56" t="n">
-        <v>838501.0675741984</v>
+        <v>14.54</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>1988.6492</v>
       </c>
       <c r="G57" t="n">
-        <v>839501.0675741984</v>
+        <v>14.52</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C58" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="E58" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F58" t="n">
-        <v>24401.0367</v>
+        <v>18400</v>
       </c>
       <c r="G58" t="n">
-        <v>815100.0308741983</v>
+        <v>14.5</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C59" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="D59" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E59" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F59" t="n">
-        <v>1308</v>
+        <v>13620.1774</v>
       </c>
       <c r="G59" t="n">
-        <v>816408.0308741983</v>
+        <v>14.5</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C60" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D60" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="E60" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F60" t="n">
-        <v>7193.9932</v>
+        <v>17117.3038</v>
       </c>
       <c r="G60" t="n">
-        <v>809214.0376741983</v>
+        <v>14.48</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C61" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D61" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="E61" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F61" t="n">
-        <v>376.0068</v>
+        <v>72702.3023</v>
       </c>
       <c r="G61" t="n">
-        <v>809214.0376741983</v>
+        <v>14.46</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="F62" t="n">
-        <v>28344.6571</v>
+        <v>2680</v>
       </c>
       <c r="G62" t="n">
-        <v>837558.6947741982</v>
+        <v>14.46</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="C63" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="D63" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="E63" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="F63" t="n">
-        <v>24010.8107</v>
+        <v>20600</v>
       </c>
       <c r="G63" t="n">
-        <v>861569.5054741983</v>
+        <v>14.46</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="C64" t="n">
-        <v>15.4</v>
+        <v>14.4</v>
       </c>
       <c r="D64" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="E64" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="F64" t="n">
-        <v>300079.4803</v>
+        <v>44454.5683</v>
       </c>
       <c r="G64" t="n">
-        <v>1161648.985774198</v>
+        <v>14.44000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="C65" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="D65" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="E65" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="F65" t="n">
-        <v>70647</v>
+        <v>1979.4447</v>
       </c>
       <c r="G65" t="n">
-        <v>1232295.985774198</v>
+        <v>14.46</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.3</v>
+        <v>14.4</v>
       </c>
       <c r="C66" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="D66" t="n">
-        <v>15.3</v>
+        <v>14.4</v>
       </c>
       <c r="E66" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="F66" t="n">
-        <v>11740</v>
+        <v>3989.0186</v>
       </c>
       <c r="G66" t="n">
-        <v>1220555.985774198</v>
+        <v>14.46</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="C67" t="n">
-        <v>15.1</v>
+        <v>14.4</v>
       </c>
       <c r="D67" t="n">
-        <v>15.1</v>
+        <v>14.4</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="F67" t="n">
-        <v>846</v>
+        <v>18537.449</v>
       </c>
       <c r="G67" t="n">
-        <v>1221401.985774198</v>
+        <v>14.44000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,68 +2914,82 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="C68" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="D68" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E68" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="F68" t="n">
-        <v>2597.8725</v>
+        <v>688.9583</v>
       </c>
       <c r="G68" t="n">
-        <v>1218804.113274198</v>
+        <v>14.42000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="C69" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="D69" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E69" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="F69" t="n">
-        <v>11258.6122</v>
+        <v>3040</v>
       </c>
       <c r="G69" t="n">
-        <v>1218804.113274198</v>
+        <v>14.44000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +2998,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="C70" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D70" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E70" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F70" t="n">
-        <v>33654.763</v>
+        <v>1397.2159</v>
       </c>
       <c r="G70" t="n">
-        <v>1185149.350274198</v>
+        <v>14.42000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3040,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="C71" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="D71" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E71" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="F71" t="n">
-        <v>3761.3679</v>
+        <v>9296.386200000001</v>
       </c>
       <c r="G71" t="n">
-        <v>1181387.982374198</v>
+        <v>14.42000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3082,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C72" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D72" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E72" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F72" t="n">
-        <v>46561.7585</v>
+        <v>21378.6134</v>
       </c>
       <c r="G72" t="n">
-        <v>1227949.740874198</v>
+        <v>14.44000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3124,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C73" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D73" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E73" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F73" t="n">
-        <v>175677.378</v>
+        <v>20800</v>
       </c>
       <c r="G73" t="n">
-        <v>1052272.362874198</v>
+        <v>14.46</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3166,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C74" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D74" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E74" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F74" t="n">
-        <v>69307.68829999999</v>
+        <v>1963.8438</v>
       </c>
       <c r="G74" t="n">
-        <v>1121580.051174198</v>
+        <v>14.46</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3208,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C75" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D75" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E75" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1763.6636</v>
+        <v>17305</v>
       </c>
       <c r="G75" t="n">
-        <v>1121580.051174198</v>
+        <v>14.48</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3250,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C76" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D76" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E76" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5110</v>
+        <v>50000</v>
       </c>
       <c r="G76" t="n">
-        <v>1116470.051174198</v>
+        <v>14.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3292,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C77" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D77" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E77" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F77" t="n">
-        <v>38395.8134</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>1116470.051174198</v>
+        <v>14.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3334,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C78" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D78" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E78" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F78" t="n">
-        <v>2416.2608</v>
+        <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>1116470.051174198</v>
+        <v>14.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,151 +3376,192 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C79" t="n">
         <v>14.6</v>
       </c>
       <c r="D79" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E79" t="n">
         <v>14.6</v>
       </c>
       <c r="F79" t="n">
-        <v>47827</v>
+        <v>12900.5166</v>
       </c>
       <c r="G79" t="n">
-        <v>1068643.051174198</v>
+        <v>14.52</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C80" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D80" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E80" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F80" t="n">
-        <v>64733</v>
+        <v>22000</v>
       </c>
       <c r="G80" t="n">
-        <v>1003910.051174198</v>
+        <v>14.56</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K80" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C81" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D81" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E81" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F81" t="n">
-        <v>23457.4931</v>
+        <v>42584.0367</v>
       </c>
       <c r="G81" t="n">
-        <v>1027367.544274198</v>
+        <v>14.6</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K81" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C82" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D82" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E82" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>1027467.544274198</v>
+        <v>14.62</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M82" t="n">
-        <v>1</v>
-      </c>
+        <v>1.008888888888889</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3271,25 +3571,25 @@
         <v>14.6</v>
       </c>
       <c r="C83" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D83" t="n">
         <v>14.6</v>
       </c>
       <c r="E83" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F83" t="n">
-        <v>64542.0114</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>962925.5328741983</v>
+        <v>14.64</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,34 +3597,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C84" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D84" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E84" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F84" t="n">
-        <v>2713.0929</v>
+        <v>30802.72108843537</v>
       </c>
       <c r="G84" t="n">
-        <v>962925.5328741983</v>
+        <v>14.64</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,6 +3633,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3350,16 +3652,16 @@
         <v>14.6</v>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>14972.2675</v>
       </c>
       <c r="G85" t="n">
-        <v>962945.5328741983</v>
+        <v>14.62</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,6 +3669,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3385,16 +3688,16 @@
         <v>14.7</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>6802.721088435374</v>
       </c>
       <c r="G86" t="n">
-        <v>963045.5328741983</v>
+        <v>14.62</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,6 +3705,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3420,16 +3724,16 @@
         <v>14.6</v>
       </c>
       <c r="F87" t="n">
-        <v>300</v>
+        <v>23634</v>
       </c>
       <c r="G87" t="n">
-        <v>962745.5328741983</v>
+        <v>14.62</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,6 +3741,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3455,16 +3760,16 @@
         <v>14.6</v>
       </c>
       <c r="F88" t="n">
-        <v>5226.9999</v>
+        <v>3980</v>
       </c>
       <c r="G88" t="n">
-        <v>962745.5328741983</v>
+        <v>14.62</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,34 +3777,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C89" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D89" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E89" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F89" t="n">
-        <v>24000</v>
+        <v>8163.265306122449</v>
       </c>
       <c r="G89" t="n">
-        <v>962745.5328741983</v>
+        <v>14.64</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3507,34 +3813,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C90" t="n">
         <v>14.6</v>
       </c>
       <c r="D90" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E90" t="n">
         <v>14.6</v>
       </c>
       <c r="F90" t="n">
-        <v>122897.97</v>
+        <v>6248.360544217687</v>
       </c>
       <c r="G90" t="n">
-        <v>962745.5328741983</v>
+        <v>14.64</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3542,6 +3849,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3560,16 +3868,16 @@
         <v>14.6</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0027</v>
+        <v>24868</v>
       </c>
       <c r="G91" t="n">
-        <v>962745.5328741983</v>
+        <v>14.62</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,34 +3885,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C92" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D92" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E92" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F92" t="n">
-        <v>1985.061</v>
+        <v>11896.1755</v>
       </c>
       <c r="G92" t="n">
-        <v>960760.4718741983</v>
+        <v>14.62</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3612,6 +3921,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3630,16 +3940,16 @@
         <v>14.6</v>
       </c>
       <c r="F93" t="n">
-        <v>18047.602</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>978808.0738741982</v>
+        <v>14.62</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3647,6 +3957,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3665,16 +3976,16 @@
         <v>14.6</v>
       </c>
       <c r="F94" t="n">
-        <v>7210.5308</v>
+        <v>27334.557</v>
       </c>
       <c r="G94" t="n">
-        <v>978808.0738741982</v>
+        <v>14.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3682,6 +3993,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3700,16 +4012,16 @@
         <v>14.6</v>
       </c>
       <c r="F95" t="n">
-        <v>3908.4996</v>
+        <v>19800</v>
       </c>
       <c r="G95" t="n">
-        <v>978808.0738741982</v>
+        <v>14.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3717,6 +4029,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3735,16 +4048,16 @@
         <v>14.5</v>
       </c>
       <c r="F96" t="n">
-        <v>3977.2985</v>
+        <v>1984.8184</v>
       </c>
       <c r="G96" t="n">
-        <v>974830.7753741982</v>
+        <v>14.58</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3752,34 +4065,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C97" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D97" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E97" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F97" t="n">
-        <v>1984.281</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>974830.7753741982</v>
+        <v>14.58</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3787,6 +4101,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3805,16 +4120,16 @@
         <v>14.5</v>
       </c>
       <c r="F98" t="n">
-        <v>2994.65</v>
+        <v>58951.5175</v>
       </c>
       <c r="G98" t="n">
-        <v>974830.7753741982</v>
+        <v>14.56</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3822,146 +4137,179 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C99" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D99" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E99" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F99" t="n">
-        <v>1988.6492</v>
+        <v>898.4825</v>
       </c>
       <c r="G99" t="n">
-        <v>974830.7753741982</v>
+        <v>14.52</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C100" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D100" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E100" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F100" t="n">
-        <v>18400</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>974830.7753741982</v>
+        <v>14.52</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C101" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D101" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E101" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F101" t="n">
-        <v>13620.1774</v>
+        <v>4480</v>
       </c>
       <c r="G101" t="n">
-        <v>974830.7753741982</v>
+        <v>14.5</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K101" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C102" t="n">
         <v>14.4</v>
       </c>
       <c r="D102" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E102" t="n">
         <v>14.4</v>
       </c>
       <c r="F102" t="n">
-        <v>17117.3038</v>
+        <v>65371.6852</v>
       </c>
       <c r="G102" t="n">
-        <v>957713.4715741982</v>
+        <v>14.46</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3980,23 +4328,32 @@
         <v>14.4</v>
       </c>
       <c r="F103" t="n">
-        <v>72702.3023</v>
+        <v>5885.9352</v>
       </c>
       <c r="G103" t="n">
-        <v>957713.4715741982</v>
+        <v>14.44000000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4015,51 +4372,60 @@
         <v>14.5</v>
       </c>
       <c r="F104" t="n">
-        <v>2680</v>
+        <v>105658.7256</v>
       </c>
       <c r="G104" t="n">
-        <v>960393.4715741982</v>
+        <v>14.46</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C105" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D105" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E105" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F105" t="n">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="G105" t="n">
-        <v>960393.4715741982</v>
+        <v>14.42000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
         <v>14.5</v>
@@ -4067,10 +4433,15 @@
       <c r="K105" t="n">
         <v>14.5</v>
       </c>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4080,69 +4451,72 @@
         <v>14.5</v>
       </c>
       <c r="C106" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D106" t="n">
         <v>14.5</v>
       </c>
       <c r="E106" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F106" t="n">
-        <v>44454.5683</v>
+        <v>6004.3968</v>
       </c>
       <c r="G106" t="n">
-        <v>915938.9032741982</v>
+        <v>14.44000000000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K106" t="n">
         <v>14.5</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C107" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D107" t="n">
         <v>14.5</v>
       </c>
       <c r="E107" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F107" t="n">
-        <v>1979.4447</v>
+        <v>27421.405</v>
       </c>
       <c r="G107" t="n">
-        <v>917918.3479741982</v>
+        <v>14.44000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="K107" t="n">
         <v>14.5</v>
@@ -4155,36 +4529,39 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C108" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D108" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E108" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F108" t="n">
-        <v>3989.0186</v>
+        <v>20</v>
       </c>
       <c r="G108" t="n">
-        <v>913929.3293741982</v>
+        <v>14.42000000000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K108" t="n">
         <v>14.5</v>
       </c>
@@ -4196,36 +4573,39 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C109" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D109" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E109" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F109" t="n">
-        <v>18537.449</v>
+        <v>194448</v>
       </c>
       <c r="G109" t="n">
-        <v>913929.3293741982</v>
+        <v>14.42000000000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K109" t="n">
         <v>14.5</v>
       </c>
@@ -4237,6 +4617,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4246,27 +4627,29 @@
         <v>14.4</v>
       </c>
       <c r="C110" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D110" t="n">
         <v>14.4</v>
       </c>
       <c r="E110" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F110" t="n">
-        <v>688.9583</v>
+        <v>21527.0138</v>
       </c>
       <c r="G110" t="n">
-        <v>913929.3293741982</v>
+        <v>14.4</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K110" t="n">
         <v>14.5</v>
       </c>
@@ -4278,6 +4661,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4296,18 +4680,20 @@
         <v>14.5</v>
       </c>
       <c r="F111" t="n">
-        <v>3040</v>
+        <v>3329.0837</v>
       </c>
       <c r="G111" t="n">
-        <v>916969.3293741982</v>
+        <v>14.4</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K111" t="n">
         <v>14.5</v>
       </c>
@@ -4319,6 +4705,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4337,18 +4724,20 @@
         <v>14.4</v>
       </c>
       <c r="F112" t="n">
-        <v>1397.2159</v>
+        <v>1780.8695</v>
       </c>
       <c r="G112" t="n">
-        <v>915572.1134741983</v>
+        <v>14.4</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K112" t="n">
         <v>14.5</v>
       </c>
@@ -4360,151 +4749,145 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C113" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="D113" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E113" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F113" t="n">
-        <v>9296.386200000001</v>
+        <v>211768</v>
       </c>
       <c r="G113" t="n">
-        <v>915572.1134741983</v>
+        <v>14.38</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K113" t="n">
         <v>14.5</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9743103448275862</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="C114" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="D114" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="E114" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="F114" t="n">
-        <v>21378.6134</v>
+        <v>52366.763</v>
       </c>
       <c r="G114" t="n">
-        <v>936950.7268741983</v>
+        <v>14.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="C115" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D115" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="E115" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="F115" t="n">
-        <v>20800</v>
+        <v>5801.2845</v>
       </c>
       <c r="G115" t="n">
-        <v>936950.7268741983</v>
+        <v>14.28</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="C116" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D116" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="E116" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="F116" t="n">
-        <v>1963.8438</v>
+        <v>5968.7707</v>
       </c>
       <c r="G116" t="n">
-        <v>936950.7268741983</v>
+        <v>14.22</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4513,172 +4896,174 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="C117" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D117" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="E117" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="F117" t="n">
-        <v>17305</v>
+        <v>3000.0933</v>
       </c>
       <c r="G117" t="n">
-        <v>936950.7268741983</v>
+        <v>14.18</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>14.2</v>
+      </c>
       <c r="K117" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.2</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="C118" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="D118" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="E118" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="F118" t="n">
-        <v>50000</v>
+        <v>9671.810799999999</v>
       </c>
       <c r="G118" t="n">
-        <v>936950.7268741983</v>
+        <v>14.16</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>14.2</v>
+      </c>
       <c r="K118" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="C119" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="D119" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E119" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>76985.99189999999</v>
       </c>
       <c r="G119" t="n">
-        <v>936950.7268741983</v>
+        <v>14.16</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>14.1</v>
+      </c>
       <c r="K119" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="C120" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D120" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="E120" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>6600</v>
       </c>
       <c r="G120" t="n">
-        <v>936950.7268741983</v>
+        <v>14.16</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>14.1</v>
+      </c>
       <c r="K120" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4688,1744 +5073,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C121" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D121" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E121" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F121" t="n">
-        <v>12900.5166</v>
-      </c>
-      <c r="G121" t="n">
-        <v>949851.2434741983</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C122" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E122" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>22000</v>
-      </c>
-      <c r="G122" t="n">
-        <v>971851.2434741983</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E123" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>42584.0367</v>
-      </c>
-      <c r="G123" t="n">
-        <v>971851.2434741983</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C124" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D124" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E124" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>20</v>
-      </c>
-      <c r="G124" t="n">
-        <v>971831.2434741983</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C125" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D125" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E125" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F125" t="n">
-        <v>10</v>
-      </c>
-      <c r="G125" t="n">
-        <v>971831.2434741983</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>30802.72108843537</v>
-      </c>
-      <c r="G126" t="n">
-        <v>971831.2434741983</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>14972.2675</v>
-      </c>
-      <c r="G127" t="n">
-        <v>971831.2434741983</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D128" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>6802.721088435374</v>
-      </c>
-      <c r="G128" t="n">
-        <v>978633.9645626337</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C129" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>23634</v>
-      </c>
-      <c r="G129" t="n">
-        <v>954999.9645626337</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3980</v>
-      </c>
-      <c r="G130" t="n">
-        <v>954999.9645626337</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C131" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E131" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>8163.265306122449</v>
-      </c>
-      <c r="G131" t="n">
-        <v>963163.2298687561</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C132" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E132" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F132" t="n">
-        <v>6248.360544217687</v>
-      </c>
-      <c r="G132" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>24868</v>
-      </c>
-      <c r="G133" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>11896.1755</v>
-      </c>
-      <c r="G134" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C135" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D135" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E135" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10</v>
-      </c>
-      <c r="G135" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C136" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E136" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F136" t="n">
-        <v>27334.557</v>
-      </c>
-      <c r="G136" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F137" t="n">
-        <v>19800</v>
-      </c>
-      <c r="G137" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C138" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E138" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1984.8184</v>
-      </c>
-      <c r="G138" t="n">
-        <v>954930.0509245385</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C139" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E139" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>100</v>
-      </c>
-      <c r="G139" t="n">
-        <v>955030.0509245385</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C140" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D140" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F140" t="n">
-        <v>58951.5175</v>
-      </c>
-      <c r="G140" t="n">
-        <v>896078.5334245386</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C141" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D141" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E141" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F141" t="n">
-        <v>898.4825</v>
-      </c>
-      <c r="G141" t="n">
-        <v>895180.0509245385</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E142" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>10</v>
-      </c>
-      <c r="G142" t="n">
-        <v>895190.0509245385</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C143" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D143" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E143" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4480</v>
-      </c>
-      <c r="G143" t="n">
-        <v>890710.0509245385</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D144" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>65371.6852</v>
-      </c>
-      <c r="G144" t="n">
-        <v>890710.0509245385</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>5885.9352</v>
-      </c>
-      <c r="G145" t="n">
-        <v>890710.0509245385</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>105658.7256</v>
-      </c>
-      <c r="G146" t="n">
-        <v>996368.7765245385</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C147" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D147" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E147" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G147" t="n">
-        <v>975368.7765245385</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>6004.3968</v>
-      </c>
-      <c r="G148" t="n">
-        <v>981373.1733245385</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C149" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D149" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>27421.405</v>
-      </c>
-      <c r="G149" t="n">
-        <v>953951.7683245385</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C150" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D150" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F150" t="n">
-        <v>20</v>
-      </c>
-      <c r="G150" t="n">
-        <v>953931.7683245385</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>194448</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1148379.768324539</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K151" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D152" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E152" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>21527.0138</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1126852.754524539</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3329.0837</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1130181.838224539</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C154" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D154" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E154" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1780.8695</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1128400.968724539</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C155" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E155" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>211768</v>
-      </c>
-      <c r="G155" t="n">
-        <v>916632.9687245386</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F156" t="n">
-        <v>52366.763</v>
-      </c>
-      <c r="G156" t="n">
-        <v>864266.2057245385</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K156" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C157" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E157" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F157" t="n">
-        <v>5801.2845</v>
-      </c>
-      <c r="G157" t="n">
-        <v>870067.4902245385</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K157" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D158" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5968.7707</v>
-      </c>
-      <c r="G158" t="n">
-        <v>870067.4902245385</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K158" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3000.0933</v>
-      </c>
-      <c r="G159" t="n">
-        <v>870067.4902245385</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K159" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F160" t="n">
-        <v>9671.810799999999</v>
-      </c>
-      <c r="G160" t="n">
-        <v>860395.6794245385</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K160" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E161" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>76985.99189999999</v>
-      </c>
-      <c r="G161" t="n">
-        <v>860395.6794245385</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K161" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C162" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D162" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6600</v>
-      </c>
-      <c r="G162" t="n">
-        <v>866995.6794245385</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K162" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C2" t="n">
         <v>14.5</v>
@@ -447,16 +447,16 @@
         <v>14.5</v>
       </c>
       <c r="E2" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2740</v>
+        <v>1749.6515</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48</v>
+        <v>1141637.38842937</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -486,19 +486,23 @@
         <v>14.5</v>
       </c>
       <c r="F3" t="n">
-        <v>21970</v>
+        <v>8250.3485</v>
       </c>
       <c r="G3" t="n">
-        <v>14.46</v>
+        <v>1141637.38842937</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D4" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F4" t="n">
-        <v>32598</v>
+        <v>47412.2221</v>
       </c>
       <c r="G4" t="n">
-        <v>14.46</v>
+        <v>1094225.166329371</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -534,8 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -549,7 +559,7 @@
         <v>14.5</v>
       </c>
       <c r="C5" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D5" t="n">
         <v>14.5</v>
@@ -558,20 +568,28 @@
         <v>14.3</v>
       </c>
       <c r="F5" t="n">
-        <v>525655.9225</v>
+        <v>173426.7123</v>
       </c>
       <c r="G5" t="n">
-        <v>14.46</v>
+        <v>920798.4540293706</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="D6" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="E6" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G6" t="n">
-        <v>14.48</v>
+        <v>920674.4540293706</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +644,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>5620</v>
+        <v>443.3331</v>
       </c>
       <c r="G7" t="n">
-        <v>14.48</v>
+        <v>920231.1209293705</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +688,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="D8" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="E8" t="n">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="F8" t="n">
-        <v>245</v>
+        <v>27350</v>
       </c>
       <c r="G8" t="n">
-        <v>14.5</v>
+        <v>947581.1209293705</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +732,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="C9" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="D9" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="E9" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="F9" t="n">
-        <v>33600</v>
+        <v>4200</v>
       </c>
       <c r="G9" t="n">
-        <v>14.54</v>
+        <v>943381.1209293705</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +776,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="D10" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="E10" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="F10" t="n">
-        <v>2790.0822</v>
+        <v>2660</v>
       </c>
       <c r="G10" t="n">
-        <v>14.58</v>
+        <v>943381.1209293705</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +820,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C11" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D11" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="E11" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F11" t="n">
-        <v>5823.8743</v>
+        <v>1953.2893</v>
       </c>
       <c r="G11" t="n">
-        <v>14.64</v>
+        <v>945334.4102293705</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +864,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D12" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E12" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F12" t="n">
-        <v>8405</v>
+        <v>8032.1557</v>
       </c>
       <c r="G12" t="n">
-        <v>14.7</v>
+        <v>945334.4102293705</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +908,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="E13" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="F13" t="n">
-        <v>95766.2781</v>
+        <v>37181.6749</v>
       </c>
       <c r="G13" t="n">
-        <v>14.76</v>
+        <v>908152.7353293705</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +932,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="D14" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E14" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="F14" t="n">
-        <v>4800</v>
+        <v>4549.9998</v>
       </c>
       <c r="G14" t="n">
-        <v>14.8</v>
+        <v>912702.7351293705</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +974,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +992,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>18590.8374</v>
       </c>
       <c r="G15" t="n">
-        <v>14.88</v>
+        <v>894111.8977293705</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1016,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1034,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="E16" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="F16" t="n">
-        <v>24401.0367</v>
+        <v>2856.3645</v>
       </c>
       <c r="G16" t="n">
-        <v>14.88</v>
+        <v>894111.8977293705</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1058,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1076,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="D17" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="E17" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1308</v>
+        <v>2280</v>
       </c>
       <c r="G17" t="n">
-        <v>14.90000000000001</v>
+        <v>894111.8977293705</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1100,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1118,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C18" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="D18" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="E18" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="F18" t="n">
-        <v>7193.9932</v>
+        <v>4157.4488</v>
       </c>
       <c r="G18" t="n">
-        <v>14.88</v>
+        <v>894111.8977293705</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1142,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1160,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="C19" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="D19" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="E19" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="F19" t="n">
-        <v>376.0068</v>
+        <v>31000</v>
       </c>
       <c r="G19" t="n">
-        <v>14.86</v>
+        <v>863111.8977293705</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1184,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1202,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="F20" t="n">
-        <v>28344.6571</v>
+        <v>35901.4084</v>
       </c>
       <c r="G20" t="n">
-        <v>14.86</v>
+        <v>863111.8977293705</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1246,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.1</v>
+        <v>14.3</v>
       </c>
       <c r="C21" t="n">
-        <v>15.2</v>
+        <v>14.2</v>
       </c>
       <c r="D21" t="n">
-        <v>15.2</v>
+        <v>14.3</v>
       </c>
       <c r="E21" t="n">
-        <v>15.1</v>
+        <v>14.2</v>
       </c>
       <c r="F21" t="n">
-        <v>24010.8107</v>
+        <v>2051.824</v>
       </c>
       <c r="G21" t="n">
-        <v>14.94</v>
+        <v>863111.8977293705</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1270,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1288,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.2</v>
+        <v>14.1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.4</v>
+        <v>14.3</v>
       </c>
       <c r="D22" t="n">
-        <v>15.4</v>
+        <v>14.3</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
-        <v>300079.4803</v>
+        <v>919502.5138</v>
       </c>
       <c r="G22" t="n">
-        <v>15.04</v>
+        <v>1782614.411529371</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1330,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="C23" t="n">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="D23" t="n">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="E23" t="n">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="F23" t="n">
-        <v>70647</v>
+        <v>6878.7537</v>
       </c>
       <c r="G23" t="n">
-        <v>15.18</v>
+        <v>1775735.657829371</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1372,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="C24" t="n">
-        <v>14.9</v>
+        <v>13.6</v>
       </c>
       <c r="D24" t="n">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="E24" t="n">
-        <v>14.9</v>
+        <v>13.6</v>
       </c>
       <c r="F24" t="n">
-        <v>11740</v>
+        <v>1070582.7311</v>
       </c>
       <c r="G24" t="n">
-        <v>15.20000000000001</v>
+        <v>705152.9267293706</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1414,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="C25" t="n">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="D25" t="n">
-        <v>15.1</v>
+        <v>14.2</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="F25" t="n">
-        <v>846</v>
+        <v>58070.1786</v>
       </c>
       <c r="G25" t="n">
-        <v>15.22</v>
+        <v>763223.1053293706</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1456,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="C26" t="n">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="D26" t="n">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="E26" t="n">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="F26" t="n">
-        <v>2597.8725</v>
+        <v>155910.9829</v>
       </c>
       <c r="G26" t="n">
-        <v>15.16000000000001</v>
+        <v>919134.0882293705</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1498,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>11258.6122</v>
+        <v>1883.3459</v>
       </c>
       <c r="G27" t="n">
-        <v>15.06000000000001</v>
+        <v>917250.7423293706</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1540,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="C28" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="D28" t="n">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="E28" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="F28" t="n">
-        <v>33654.763</v>
+        <v>33697.9457</v>
       </c>
       <c r="G28" t="n">
-        <v>14.92000000000001</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1582,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="C29" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="D29" t="n">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="E29" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="F29" t="n">
-        <v>3761.3679</v>
+        <v>64409.2609</v>
       </c>
       <c r="G29" t="n">
-        <v>14.88</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1624,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="C30" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="D30" t="n">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="E30" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="F30" t="n">
-        <v>46561.7585</v>
+        <v>3450.7042</v>
       </c>
       <c r="G30" t="n">
-        <v>14.82</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1666,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="C31" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="D31" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="E31" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="F31" t="n">
-        <v>175677.378</v>
+        <v>37861.2403</v>
       </c>
       <c r="G31" t="n">
-        <v>14.78</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1708,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="C32" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="D32" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="E32" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="F32" t="n">
-        <v>69307.68829999999</v>
+        <v>7546.6017</v>
       </c>
       <c r="G32" t="n">
-        <v>14.76</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1750,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="C33" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="D33" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="E33" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="F33" t="n">
-        <v>1763.6636</v>
+        <v>27086.9699</v>
       </c>
       <c r="G33" t="n">
-        <v>14.76</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1792,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="C34" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="D34" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="E34" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="F34" t="n">
-        <v>5110</v>
+        <v>6449.8736</v>
       </c>
       <c r="G34" t="n">
-        <v>14.76</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1834,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="C35" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="D35" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="E35" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="F35" t="n">
-        <v>38395.8134</v>
+        <v>27447.8546</v>
       </c>
       <c r="G35" t="n">
-        <v>14.74</v>
+        <v>950948.6880293706</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1876,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="C36" t="n">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="D36" t="n">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="E36" t="n">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="F36" t="n">
-        <v>2416.2608</v>
+        <v>35678.5872</v>
       </c>
       <c r="G36" t="n">
-        <v>14.74</v>
+        <v>915270.1008293707</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1900,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1918,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="C37" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="D37" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="E37" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="F37" t="n">
-        <v>47827</v>
+        <v>45800</v>
       </c>
       <c r="G37" t="n">
-        <v>14.7</v>
+        <v>961070.1008293707</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1960,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="C38" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D38" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="E38" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="F38" t="n">
-        <v>64733</v>
+        <v>100000</v>
       </c>
       <c r="G38" t="n">
-        <v>14.64</v>
+        <v>961070.1008293707</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1984,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +2002,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C39" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D39" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E39" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F39" t="n">
-        <v>23457.4931</v>
+        <v>40184.3052</v>
       </c>
       <c r="G39" t="n">
-        <v>14.62</v>
+        <v>1001254.406029371</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2026,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2044,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="C40" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="D40" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="E40" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>2234.3234</v>
       </c>
       <c r="G40" t="n">
-        <v>14.62</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2068,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2086,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="C41" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D41" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="E41" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F41" t="n">
-        <v>64542.0114</v>
+        <v>5268</v>
       </c>
       <c r="G41" t="n">
-        <v>14.58</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2128,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C42" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D42" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E42" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F42" t="n">
-        <v>2713.0929</v>
+        <v>28800</v>
       </c>
       <c r="G42" t="n">
-        <v>14.56</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2152,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2170,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="C43" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="D43" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="E43" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>21433.2117</v>
       </c>
       <c r="G43" t="n">
-        <v>14.58</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2194,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2212,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="C44" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="D44" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="E44" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>117315.515</v>
       </c>
       <c r="G44" t="n">
-        <v>14.6</v>
+        <v>999020.0826293706</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2236,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2254,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="C45" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D45" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E45" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>73641.1176</v>
       </c>
       <c r="G45" t="n">
-        <v>14.58</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2278,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2296,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C46" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D46" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E46" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F46" t="n">
-        <v>5226.9999</v>
+        <v>78800</v>
       </c>
       <c r="G46" t="n">
-        <v>14.6</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2338,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C47" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D47" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E47" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F47" t="n">
-        <v>24000</v>
+        <v>1399.2361</v>
       </c>
       <c r="G47" t="n">
-        <v>14.62</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2380,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C48" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D48" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E48" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F48" t="n">
-        <v>122897.97</v>
+        <v>18600</v>
       </c>
       <c r="G48" t="n">
-        <v>14.62</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2422,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="C49" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D49" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E49" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0027</v>
+        <v>1390</v>
       </c>
       <c r="G49" t="n">
-        <v>14.6</v>
+        <v>1072661.200229371</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2446,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2178,24 +2476,26 @@
         <v>14.5</v>
       </c>
       <c r="F50" t="n">
-        <v>1985.061</v>
+        <v>1379.310344827586</v>
       </c>
       <c r="G50" t="n">
-        <v>14.58</v>
+        <v>1074040.510574198</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2206,38 +2506,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C51" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D51" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E51" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F51" t="n">
-        <v>18047.602</v>
+        <v>37851.1034</v>
       </c>
       <c r="G51" t="n">
-        <v>14.58</v>
+        <v>1074040.510574198</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2250,38 +2548,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F52" t="n">
-        <v>7210.5308</v>
+        <v>21000</v>
       </c>
       <c r="G52" t="n">
-        <v>14.58</v>
+        <v>1074040.510574198</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2294,36 +2590,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="C53" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="D53" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="E53" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="F53" t="n">
-        <v>3908.4996</v>
+        <v>1790.4873</v>
       </c>
       <c r="G53" t="n">
-        <v>14.58</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2334,38 +2632,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C54" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D54" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E54" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F54" t="n">
-        <v>3977.2985</v>
+        <v>400</v>
       </c>
       <c r="G54" t="n">
-        <v>14.56</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2378,38 +2674,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C55" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D55" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E55" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1984.281</v>
+        <v>38600</v>
       </c>
       <c r="G55" t="n">
-        <v>14.56</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2422,36 +2716,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C56" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D56" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E56" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F56" t="n">
-        <v>2994.65</v>
+        <v>17278.4622</v>
       </c>
       <c r="G56" t="n">
-        <v>14.54</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>14.5</v>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2462,38 +2758,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C57" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D57" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E57" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F57" t="n">
-        <v>1988.6492</v>
+        <v>24040</v>
       </c>
       <c r="G57" t="n">
-        <v>14.52</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>14.5</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2506,38 +2800,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C58" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D58" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="E58" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F58" t="n">
-        <v>18400</v>
+        <v>52648</v>
       </c>
       <c r="G58" t="n">
-        <v>14.5</v>
+        <v>1072250.023274198</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>14.5</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2550,36 +2842,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C59" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D59" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E59" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F59" t="n">
-        <v>13620.1774</v>
+        <v>58921.7601</v>
       </c>
       <c r="G59" t="n">
-        <v>14.5</v>
+        <v>1131171.783374198</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>14.5</v>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2602,26 +2896,24 @@
         <v>14.4</v>
       </c>
       <c r="F60" t="n">
-        <v>17117.3038</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>14.48</v>
+        <v>1131171.783374198</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>14.5</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2640,32 +2932,30 @@
         <v>14.4</v>
       </c>
       <c r="D61" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E61" t="n">
         <v>14.4</v>
       </c>
       <c r="F61" t="n">
-        <v>72702.3023</v>
+        <v>2530</v>
       </c>
       <c r="G61" t="n">
-        <v>14.46</v>
+        <v>1131171.783374198</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>14.5</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2678,7 +2968,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C62" t="n">
         <v>14.5</v>
@@ -2687,27 +2977,29 @@
         <v>14.5</v>
       </c>
       <c r="E62" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F62" t="n">
-        <v>2680</v>
+        <v>834</v>
       </c>
       <c r="G62" t="n">
-        <v>14.46</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2730,26 +3022,24 @@
         <v>14.5</v>
       </c>
       <c r="F63" t="n">
-        <v>20600</v>
+        <v>166</v>
       </c>
       <c r="G63" t="n">
-        <v>14.46</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2765,33 +3055,33 @@
         <v>14.5</v>
       </c>
       <c r="C64" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D64" t="n">
         <v>14.5</v>
       </c>
       <c r="E64" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F64" t="n">
-        <v>44454.5683</v>
+        <v>35700</v>
       </c>
       <c r="G64" t="n">
-        <v>14.44000000000001</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -2816,22 +3106,20 @@
         <v>14.5</v>
       </c>
       <c r="F65" t="n">
-        <v>1979.4447</v>
+        <v>91.9061</v>
       </c>
       <c r="G65" t="n">
-        <v>14.46</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2848,22 +3136,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C66" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D66" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E66" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F66" t="n">
-        <v>3989.0186</v>
+        <v>315</v>
       </c>
       <c r="G66" t="n">
-        <v>14.46</v>
+        <v>1132005.783374198</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2873,7 +3161,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2890,22 +3178,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C67" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="D67" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="E67" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F67" t="n">
-        <v>18537.449</v>
+        <v>117591.6494</v>
       </c>
       <c r="G67" t="n">
-        <v>14.44000000000001</v>
+        <v>1249597.432774198</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2915,7 +3203,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2932,22 +3220,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="C68" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D68" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="E68" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="F68" t="n">
-        <v>688.9583</v>
+        <v>4611.287</v>
       </c>
       <c r="G68" t="n">
-        <v>14.42000000000001</v>
+        <v>1254208.719774198</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2957,7 +3245,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2974,22 +3262,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C69" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D69" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E69" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F69" t="n">
-        <v>3040</v>
+        <v>19295.7227</v>
       </c>
       <c r="G69" t="n">
-        <v>14.44000000000001</v>
+        <v>1234912.997074198</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2999,7 +3287,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3016,22 +3304,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C70" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D70" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E70" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F70" t="n">
-        <v>1397.2159</v>
+        <v>2078.5772</v>
       </c>
       <c r="G70" t="n">
-        <v>14.42000000000001</v>
+        <v>1232834.419874198</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3041,7 +3329,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3070,10 +3358,10 @@
         <v>14.4</v>
       </c>
       <c r="F71" t="n">
-        <v>9296.386200000001</v>
+        <v>4072.5</v>
       </c>
       <c r="G71" t="n">
-        <v>14.42000000000001</v>
+        <v>1228761.919874198</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3083,7 +3371,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3100,22 +3388,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C72" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D72" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E72" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F72" t="n">
-        <v>21378.6134</v>
+        <v>295</v>
       </c>
       <c r="G72" t="n">
-        <v>14.44000000000001</v>
+        <v>1228761.919874198</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3125,7 +3413,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3142,7 +3430,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C73" t="n">
         <v>14.5</v>
@@ -3151,13 +3439,13 @@
         <v>14.5</v>
       </c>
       <c r="E73" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F73" t="n">
-        <v>20800</v>
+        <v>2740</v>
       </c>
       <c r="G73" t="n">
-        <v>14.46</v>
+        <v>1231501.919874198</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3167,7 +3455,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3196,10 +3484,10 @@
         <v>14.5</v>
       </c>
       <c r="F74" t="n">
-        <v>1963.8438</v>
+        <v>21970</v>
       </c>
       <c r="G74" t="n">
-        <v>14.46</v>
+        <v>1231501.919874198</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3209,7 +3497,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3226,22 +3514,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C75" t="n">
         <v>14.5</v>
       </c>
       <c r="D75" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E75" t="n">
         <v>14.5</v>
       </c>
       <c r="F75" t="n">
-        <v>17305</v>
+        <v>32598</v>
       </c>
       <c r="G75" t="n">
-        <v>14.48</v>
+        <v>1231501.919874198</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3251,7 +3539,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3271,19 +3559,19 @@
         <v>14.5</v>
       </c>
       <c r="C76" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D76" t="n">
         <v>14.5</v>
       </c>
       <c r="E76" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F76" t="n">
-        <v>50000</v>
+        <v>525655.9225</v>
       </c>
       <c r="G76" t="n">
-        <v>14.5</v>
+        <v>705845.9973741983</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3293,7 +3581,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3325,7 +3613,7 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>14.5</v>
+        <v>705855.9973741983</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3335,7 +3623,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3352,22 +3640,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C78" t="n">
         <v>14.5</v>
       </c>
       <c r="D78" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E78" t="n">
         <v>14.5</v>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>5620</v>
       </c>
       <c r="G78" t="n">
-        <v>14.5</v>
+        <v>705855.9973741983</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3377,7 +3665,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3406,22 +3694,20 @@
         <v>14.6</v>
       </c>
       <c r="F79" t="n">
-        <v>12900.5166</v>
+        <v>245</v>
       </c>
       <c r="G79" t="n">
-        <v>14.52</v>
+        <v>706100.9973741983</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3450,22 +3736,20 @@
         <v>14.7</v>
       </c>
       <c r="F80" t="n">
-        <v>22000</v>
+        <v>33600</v>
       </c>
       <c r="G80" t="n">
-        <v>14.56</v>
+        <v>739700.9973741983</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3482,34 +3766,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C81" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D81" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E81" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F81" t="n">
-        <v>42584.0367</v>
+        <v>2790.0822</v>
       </c>
       <c r="G81" t="n">
-        <v>14.6</v>
+        <v>736910.9151741983</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3526,40 +3808,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C82" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D82" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E82" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>5823.8743</v>
       </c>
       <c r="G82" t="n">
-        <v>14.62</v>
+        <v>742734.7894741984</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1.008888888888889</v>
+        <v>1</v>
       </c>
       <c r="N82" t="inlineStr"/>
     </row>
@@ -3568,32 +3850,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C83" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D83" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E83" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>8405</v>
       </c>
       <c r="G83" t="n">
-        <v>14.64</v>
+        <v>742734.7894741984</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3604,32 +3892,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C84" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D84" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E84" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="F84" t="n">
-        <v>30802.72108843537</v>
+        <v>95766.2781</v>
       </c>
       <c r="G84" t="n">
-        <v>14.64</v>
+        <v>838501.0675741984</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3640,32 +3934,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="C85" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D85" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="E85" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="F85" t="n">
-        <v>14972.2675</v>
+        <v>4800</v>
       </c>
       <c r="G85" t="n">
-        <v>14.62</v>
+        <v>838501.0675741984</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3676,32 +3976,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>6802.721088435374</v>
+        <v>1000</v>
       </c>
       <c r="G86" t="n">
-        <v>14.62</v>
+        <v>839501.0675741984</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3712,32 +4018,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C87" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D87" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F87" t="n">
-        <v>23634</v>
+        <v>24401.0367</v>
       </c>
       <c r="G87" t="n">
-        <v>14.62</v>
+        <v>815100.0308741983</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3748,32 +4060,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C88" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D88" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="E88" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F88" t="n">
-        <v>3980</v>
+        <v>1308</v>
       </c>
       <c r="G88" t="n">
-        <v>14.62</v>
+        <v>816408.0308741983</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3784,32 +4102,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C89" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D89" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E89" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F89" t="n">
-        <v>8163.265306122449</v>
+        <v>7193.9932</v>
       </c>
       <c r="G89" t="n">
-        <v>14.64</v>
+        <v>809214.0376741983</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3820,32 +4144,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C90" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D90" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E90" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F90" t="n">
-        <v>6248.360544217687</v>
+        <v>376.0068</v>
       </c>
       <c r="G90" t="n">
-        <v>14.64</v>
+        <v>809214.0376741983</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3856,32 +4186,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="E91" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>24868</v>
+        <v>28344.6571</v>
       </c>
       <c r="G91" t="n">
-        <v>14.62</v>
+        <v>837558.6947741982</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3892,32 +4228,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="C92" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="D92" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="E92" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="F92" t="n">
-        <v>11896.1755</v>
+        <v>24010.8107</v>
       </c>
       <c r="G92" t="n">
-        <v>14.62</v>
+        <v>861569.5054741983</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3928,32 +4270,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="C93" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="D93" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="E93" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>300079.4803</v>
       </c>
       <c r="G93" t="n">
-        <v>14.62</v>
+        <v>1161648.985774198</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3964,22 +4312,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="C94" t="n">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="D94" t="n">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="E94" t="n">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="F94" t="n">
-        <v>27334.557</v>
+        <v>70647</v>
       </c>
       <c r="G94" t="n">
-        <v>14.6</v>
+        <v>1232295.985774198</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3988,34 +4336,42 @@
         <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>1.063965517241379</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.006944444444444</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="C95" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D95" t="n">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="E95" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="F95" t="n">
-        <v>19800</v>
+        <v>11740</v>
       </c>
       <c r="G95" t="n">
-        <v>14.6</v>
+        <v>1220555.985774198</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4036,22 +4392,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="D96" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="E96" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="F96" t="n">
-        <v>1984.8184</v>
+        <v>846</v>
       </c>
       <c r="G96" t="n">
-        <v>14.58</v>
+        <v>1221401.985774198</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4072,22 +4428,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="C97" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D97" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="E97" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="F97" t="n">
-        <v>100</v>
+        <v>2597.8725</v>
       </c>
       <c r="G97" t="n">
-        <v>14.58</v>
+        <v>1218804.113274198</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4108,22 +4464,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="C98" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="D98" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E98" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="F98" t="n">
-        <v>58951.5175</v>
+        <v>11258.6122</v>
       </c>
       <c r="G98" t="n">
-        <v>14.56</v>
+        <v>1218804.113274198</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4144,35 +4500,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="C99" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D99" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="E99" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="F99" t="n">
-        <v>898.4825</v>
+        <v>33654.763</v>
       </c>
       <c r="G99" t="n">
-        <v>14.52</v>
+        <v>1185149.350274198</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -4184,40 +4536,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="C100" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D100" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="E100" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>3761.3679</v>
       </c>
       <c r="G100" t="n">
-        <v>14.52</v>
+        <v>1181387.982374198</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4228,40 +4572,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="C101" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D101" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="E101" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="F101" t="n">
-        <v>4480</v>
+        <v>46561.7585</v>
       </c>
       <c r="G101" t="n">
-        <v>14.5</v>
+        <v>1227949.740874198</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K101" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4272,40 +4608,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C102" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="D102" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E102" t="n">
         <v>14.4</v>
       </c>
       <c r="F102" t="n">
-        <v>65371.6852</v>
+        <v>175677.378</v>
       </c>
       <c r="G102" t="n">
-        <v>14.46</v>
+        <v>1052272.362874198</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
-      <c r="J102" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4316,40 +4644,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C103" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="D103" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="E103" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F103" t="n">
-        <v>5885.9352</v>
+        <v>69307.68829999999</v>
       </c>
       <c r="G103" t="n">
-        <v>14.44000000000001</v>
+        <v>1121580.051174198</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K103" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4360,40 +4680,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="C104" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D104" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E104" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F104" t="n">
-        <v>105658.7256</v>
+        <v>1763.6636</v>
       </c>
       <c r="G104" t="n">
-        <v>14.46</v>
+        <v>1121580.051174198</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4404,40 +4716,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="C105" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="D105" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="E105" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="F105" t="n">
-        <v>21000</v>
+        <v>5110</v>
       </c>
       <c r="G105" t="n">
-        <v>14.42000000000001</v>
+        <v>1116470.051174198</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4448,40 +4752,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C106" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D106" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E106" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F106" t="n">
-        <v>6004.3968</v>
+        <v>38395.8134</v>
       </c>
       <c r="G106" t="n">
-        <v>14.44000000000001</v>
+        <v>1116470.051174198</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K106" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4492,40 +4788,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="C107" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="D107" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E107" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="F107" t="n">
-        <v>27421.405</v>
+        <v>2416.2608</v>
       </c>
       <c r="G107" t="n">
-        <v>14.44000000000001</v>
+        <v>1116470.051174198</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K107" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4536,40 +4824,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="C108" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="D108" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="E108" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>47827</v>
       </c>
       <c r="G108" t="n">
-        <v>14.42000000000001</v>
+        <v>1068643.051174198</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K108" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4580,40 +4860,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C109" t="n">
         <v>14.5</v>
       </c>
       <c r="D109" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E109" t="n">
         <v>14.5</v>
       </c>
       <c r="F109" t="n">
-        <v>194448</v>
+        <v>64733</v>
       </c>
       <c r="G109" t="n">
-        <v>14.42000000000001</v>
+        <v>1003910.051174198</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K109" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4624,40 +4896,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C110" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="D110" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E110" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="F110" t="n">
-        <v>21527.0138</v>
+        <v>23457.4931</v>
       </c>
       <c r="G110" t="n">
-        <v>14.4</v>
+        <v>1027367.544274198</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K110" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4668,40 +4932,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C111" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D111" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E111" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F111" t="n">
-        <v>3329.0837</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>14.4</v>
+        <v>1027467.544274198</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K111" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4712,40 +4968,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="C112" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D112" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E112" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F112" t="n">
-        <v>1780.8695</v>
+        <v>64542.0114</v>
       </c>
       <c r="G112" t="n">
-        <v>14.4</v>
+        <v>962925.5328741983</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K112" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4756,42 +5004,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="C113" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="D113" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="E113" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="F113" t="n">
-        <v>211768</v>
+        <v>2713.0929</v>
       </c>
       <c r="G113" t="n">
-        <v>14.38</v>
+        <v>962925.5328741983</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K113" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>0.9743103448275862</v>
+        <v>1</v>
       </c>
       <c r="N113" t="inlineStr"/>
     </row>
@@ -4800,28 +5040,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="C114" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="D114" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="E114" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="F114" t="n">
-        <v>52366.763</v>
+        <v>20</v>
       </c>
       <c r="G114" t="n">
-        <v>14.3</v>
+        <v>962945.5328741983</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4836,28 +5076,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="C115" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="D115" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="E115" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="F115" t="n">
-        <v>5801.2845</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>14.28</v>
+        <v>963045.5328741983</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4872,22 +5112,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="C116" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="D116" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="E116" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="F116" t="n">
-        <v>5968.7707</v>
+        <v>300</v>
       </c>
       <c r="G116" t="n">
-        <v>14.22</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4908,35 +5148,31 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="C117" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="D117" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="E117" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="F117" t="n">
-        <v>3000.0933</v>
+        <v>5226.9999</v>
       </c>
       <c r="G117" t="n">
-        <v>14.18</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K117" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
@@ -4948,40 +5184,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="C118" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="D118" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="E118" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="F118" t="n">
-        <v>9671.810799999999</v>
+        <v>24000</v>
       </c>
       <c r="G118" t="n">
-        <v>14.16</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K118" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4992,40 +5220,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="C119" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="D119" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="E119" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="F119" t="n">
-        <v>76985.99189999999</v>
+        <v>122897.97</v>
       </c>
       <c r="G119" t="n">
-        <v>14.16</v>
+        <v>962745.5328741983</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5036,44 +5256,2592 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="C120" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="D120" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="E120" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="F120" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="G120" t="n">
+        <v>962745.5328741983</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1985.061</v>
+      </c>
+      <c r="G121" t="n">
+        <v>960760.4718741983</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18047.602</v>
+      </c>
+      <c r="G122" t="n">
+        <v>978808.0738741982</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7210.5308</v>
+      </c>
+      <c r="G123" t="n">
+        <v>978808.0738741982</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3908.4996</v>
+      </c>
+      <c r="G124" t="n">
+        <v>978808.0738741982</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3977.2985</v>
+      </c>
+      <c r="G125" t="n">
+        <v>974830.7753741982</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1984.281</v>
+      </c>
+      <c r="G126" t="n">
+        <v>974830.7753741982</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2994.65</v>
+      </c>
+      <c r="G127" t="n">
+        <v>974830.7753741982</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1988.6492</v>
+      </c>
+      <c r="G128" t="n">
+        <v>974830.7753741982</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>974830.7753741982</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>13620.1774</v>
+      </c>
+      <c r="G130" t="n">
+        <v>974830.7753741982</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>17117.3038</v>
+      </c>
+      <c r="G131" t="n">
+        <v>957713.4715741982</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>72702.3023</v>
+      </c>
+      <c r="G132" t="n">
+        <v>957713.4715741982</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2680</v>
+      </c>
+      <c r="G133" t="n">
+        <v>960393.4715741982</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20600</v>
+      </c>
+      <c r="G134" t="n">
+        <v>960393.4715741982</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>44454.5683</v>
+      </c>
+      <c r="G135" t="n">
+        <v>915938.9032741982</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1979.4447</v>
+      </c>
+      <c r="G136" t="n">
+        <v>917918.3479741982</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3989.0186</v>
+      </c>
+      <c r="G137" t="n">
+        <v>913929.3293741982</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18537.449</v>
+      </c>
+      <c r="G138" t="n">
+        <v>913929.3293741982</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>688.9583</v>
+      </c>
+      <c r="G139" t="n">
+        <v>913929.3293741982</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3040</v>
+      </c>
+      <c r="G140" t="n">
+        <v>916969.3293741982</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1397.2159</v>
+      </c>
+      <c r="G141" t="n">
+        <v>915572.1134741983</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9296.386200000001</v>
+      </c>
+      <c r="G142" t="n">
+        <v>915572.1134741983</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21378.6134</v>
+      </c>
+      <c r="G143" t="n">
+        <v>936950.7268741983</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20800</v>
+      </c>
+      <c r="G144" t="n">
+        <v>936950.7268741983</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1963.8438</v>
+      </c>
+      <c r="G145" t="n">
+        <v>936950.7268741983</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17305</v>
+      </c>
+      <c r="G146" t="n">
+        <v>936950.7268741983</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>936950.7268741983</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10</v>
+      </c>
+      <c r="G148" t="n">
+        <v>936950.7268741983</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>20</v>
+      </c>
+      <c r="G149" t="n">
+        <v>936950.7268741983</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12900.5166</v>
+      </c>
+      <c r="G150" t="n">
+        <v>949851.2434741983</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>971851.2434741983</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>42584.0367</v>
+      </c>
+      <c r="G152" t="n">
+        <v>971851.2434741983</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C153" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" t="n">
+        <v>971831.2434741983</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C154" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10</v>
+      </c>
+      <c r="G154" t="n">
+        <v>971831.2434741983</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>30802.72108843537</v>
+      </c>
+      <c r="G155" t="n">
+        <v>971831.2434741983</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>14972.2675</v>
+      </c>
+      <c r="G156" t="n">
+        <v>971831.2434741983</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6802.721088435374</v>
+      </c>
+      <c r="G157" t="n">
+        <v>978633.9645626337</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>23634</v>
+      </c>
+      <c r="G158" t="n">
+        <v>954999.9645626337</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3980</v>
+      </c>
+      <c r="G159" t="n">
+        <v>954999.9645626337</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8163.265306122449</v>
+      </c>
+      <c r="G160" t="n">
+        <v>963163.2298687561</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6248.360544217687</v>
+      </c>
+      <c r="G161" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>24868</v>
+      </c>
+      <c r="G162" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C163" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>11896.1755</v>
+      </c>
+      <c r="G163" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10</v>
+      </c>
+      <c r="G164" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>27334.557</v>
+      </c>
+      <c r="G165" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19800</v>
+      </c>
+      <c r="G166" t="n">
+        <v>956914.8693245385</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1984.8184</v>
+      </c>
+      <c r="G167" t="n">
+        <v>954930.0509245385</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100</v>
+      </c>
+      <c r="G168" t="n">
+        <v>955030.0509245385</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>58951.5175</v>
+      </c>
+      <c r="G169" t="n">
+        <v>896078.5334245386</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>898.4825</v>
+      </c>
+      <c r="G170" t="n">
+        <v>895180.0509245385</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>10</v>
+      </c>
+      <c r="G171" t="n">
+        <v>895190.0509245385</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4480</v>
+      </c>
+      <c r="G172" t="n">
+        <v>890710.0509245385</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D173" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>65371.6852</v>
+      </c>
+      <c r="G173" t="n">
+        <v>890710.0509245385</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C174" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>5885.9352</v>
+      </c>
+      <c r="G174" t="n">
+        <v>890710.0509245385</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>105658.7256</v>
+      </c>
+      <c r="G175" t="n">
+        <v>996368.7765245385</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C176" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F176" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>975368.7765245385</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6004.3968</v>
+      </c>
+      <c r="G177" t="n">
+        <v>981373.1733245385</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C178" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F178" t="n">
+        <v>27421.405</v>
+      </c>
+      <c r="G178" t="n">
+        <v>953951.7683245385</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D179" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" t="n">
+        <v>953931.7683245385</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>194448</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1148379.768324539</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E181" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21527.0138</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1126852.754524539</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3329.0837</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1130181.838224539</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E183" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1780.8695</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1128400.968724539</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>211768</v>
+      </c>
+      <c r="G184" t="n">
+        <v>916632.9687245386</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>52366.763</v>
+      </c>
+      <c r="G185" t="n">
+        <v>864266.2057245385</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5801.2845</v>
+      </c>
+      <c r="G186" t="n">
+        <v>870067.4902245385</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D187" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>5968.7707</v>
+      </c>
+      <c r="G187" t="n">
+        <v>870067.4902245385</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3000.0933</v>
+      </c>
+      <c r="G188" t="n">
+        <v>870067.4902245385</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>9671.810799999999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>860395.6794245385</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E190" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>76985.99189999999</v>
+      </c>
+      <c r="G190" t="n">
+        <v>860395.6794245385</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F191" t="n">
         <v>6600</v>
       </c>
-      <c r="G120" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K120" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>866995.6794245385</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J3" t="n">
         <v>14.5</v>
       </c>
-      <c r="K3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,22 +523,19 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,26 +560,21 @@
         <v>920798.4540293706</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>14.5</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,26 +599,23 @@
         <v>920674.4540293706</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="J6" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,26 +640,23 @@
         <v>920231.1209293705</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="J7" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,26 +681,23 @@
         <v>947581.1209293705</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>14</v>
-      </c>
-      <c r="K8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,26 +722,23 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="J9" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,26 +763,23 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="J10" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -838,26 +804,23 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="J11" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -882,26 +845,23 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J12" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -926,24 +886,23 @@
         <v>908152.7353293705</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,24 +927,23 @@
         <v>912702.7351293705</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1010,24 +968,23 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1054,22 +1011,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1096,22 +1050,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1136,24 +1087,23 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1180,22 +1130,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,26 +1167,23 @@
         <v>863111.8977293705</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="J20" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1266,22 +1210,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1308,22 +1249,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1350,22 +1288,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1392,22 +1327,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1434,22 +1366,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1476,22 +1405,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1518,22 +1444,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1560,22 +1483,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1602,22 +1522,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1644,22 +1561,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1686,22 +1600,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1726,24 +1637,23 @@
         <v>950948.6880293706</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>14.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1768,24 +1678,23 @@
         <v>950948.6880293706</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>14.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1810,24 +1719,23 @@
         <v>950948.6880293706</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>14.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1852,24 +1760,23 @@
         <v>950948.6880293706</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>14.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1896,22 +1803,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1938,22 +1842,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1980,22 +1881,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2020,24 +1918,23 @@
         <v>1001254.406029371</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>14.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2062,24 +1959,23 @@
         <v>999020.0826293706</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2104,24 +2000,23 @@
         <v>999020.0826293706</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2146,24 +2041,23 @@
         <v>999020.0826293706</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2190,22 +2084,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2232,22 +2123,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2274,22 +2162,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2316,22 +2201,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2358,22 +2240,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2400,22 +2279,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2442,22 +2318,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2484,22 +2357,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2526,22 +2396,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2568,22 +2435,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2610,22 +2474,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2652,22 +2513,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2694,22 +2552,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2734,24 +2589,23 @@
         <v>1072250.023274198</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2776,24 +2630,23 @@
         <v>1072250.023274198</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2818,24 +2671,23 @@
         <v>1072250.023274198</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2860,24 +2712,23 @@
         <v>1131171.783374198</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2904,22 +2755,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2944,24 +2792,23 @@
         <v>1131171.783374198</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2986,24 +2833,23 @@
         <v>1132005.783374198</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3030,22 +2876,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3070,24 +2913,23 @@
         <v>1132005.783374198</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3114,22 +2956,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3156,22 +2995,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3198,22 +3034,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3240,22 +3073,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3280,24 +3110,21 @@
         <v>1234912.997074198</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.001896551724138</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3322,24 +3149,15 @@
         <v>1232834.419874198</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3366,22 +3184,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3408,22 +3217,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3448,24 +3248,21 @@
         <v>1231501.919874198</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3492,22 +3289,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3534,22 +3326,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3576,22 +3363,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3618,22 +3400,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3660,22 +3437,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3702,22 +3474,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3744,22 +3511,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3784,24 +3546,21 @@
         <v>736910.9151741983</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3828,22 +3587,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3870,22 +3624,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3910,24 +3659,17 @@
         <v>838501.0675741984</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3952,24 +3694,15 @@
         <v>838501.0675741984</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3994,24 +3727,15 @@
         <v>839501.0675741984</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4036,24 +3760,15 @@
         <v>815100.0308741983</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4080,22 +3795,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4120,24 +3826,15 @@
         <v>809214.0376741983</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4164,22 +3861,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4206,22 +3894,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4248,22 +3927,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4290,22 +3960,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4330,26 +3991,15 @@
         <v>1232295.985774198</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1.063965517241379</v>
-      </c>
-      <c r="N94" t="n">
-        <v>1.006944444444444</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4374,18 +4024,15 @@
         <v>1220555.985774198</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4410,18 +4057,15 @@
         <v>1221401.985774198</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4446,18 +4090,15 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4482,18 +4123,15 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4520,16 +4158,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4556,16 +4191,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4590,18 +4222,15 @@
         <v>1227949.740874198</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4626,18 +4255,15 @@
         <v>1052272.362874198</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4664,16 +4290,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4700,16 +4323,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4736,16 +4356,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4772,16 +4389,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4808,16 +4422,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4844,16 +4455,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4880,16 +4488,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4916,16 +4521,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4952,16 +4554,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4986,18 +4585,15 @@
         <v>962925.5328741983</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5024,16 +4620,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5058,18 +4651,15 @@
         <v>962945.5328741983</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5096,16 +4686,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5130,18 +4717,15 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5168,16 +4752,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5204,16 +4785,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5240,16 +4818,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5276,16 +4851,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5312,16 +4884,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5348,16 +4917,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5384,16 +4950,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5420,16 +4983,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5456,16 +5016,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5492,16 +5049,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5528,16 +5082,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5564,16 +5115,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5600,16 +5148,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5634,18 +5179,15 @@
         <v>974830.7753741982</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5672,16 +5214,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5708,16 +5247,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5744,16 +5280,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5780,16 +5313,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5816,16 +5346,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5852,16 +5379,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5888,16 +5412,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5924,16 +5445,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5960,16 +5478,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5996,16 +5511,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6032,16 +5544,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6068,16 +5577,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6104,16 +5610,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6140,16 +5643,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6176,16 +5676,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6212,16 +5709,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6248,16 +5742,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6284,16 +5775,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6320,16 +5808,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6356,16 +5841,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6392,16 +5874,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6428,16 +5907,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6464,16 +5940,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6500,16 +5973,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6536,16 +6006,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6570,18 +6037,15 @@
         <v>971831.2434741983</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6608,16 +6072,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6642,18 +6103,15 @@
         <v>954999.9645626337</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6680,16 +6138,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6716,16 +6171,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6750,18 +6202,15 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6786,18 +6235,15 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6822,18 +6268,15 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6858,18 +6301,15 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6894,18 +6334,15 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6932,16 +6369,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6968,16 +6402,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7004,16 +6435,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7038,18 +6466,15 @@
         <v>896078.5334245386</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7074,18 +6499,15 @@
         <v>895180.0509245385</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7112,16 +6534,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7148,16 +6567,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7184,16 +6600,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7218,18 +6631,19 @@
         <v>890710.0509245385</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="J174" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7256,16 +6670,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7292,16 +6709,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7328,16 +6748,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7362,18 +6779,21 @@
         <v>953951.7683245385</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7400,16 +6820,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7434,18 +6855,21 @@
         <v>1148379.768324539</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7470,18 +6894,21 @@
         <v>1126852.754524539</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7506,18 +6933,21 @@
         <v>1130181.838224539</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7542,18 +6972,21 @@
         <v>1128400.968724539</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7578,18 +7011,21 @@
         <v>916632.9687245386</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7614,18 +7050,21 @@
         <v>864266.2057245385</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7650,18 +7089,21 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7686,18 +7128,21 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7722,18 +7167,21 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7758,18 +7206,21 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7794,18 +7245,21 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7830,20 +7284,23 @@
         <v>866995.6794245385</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>14.5</v>
@@ -521,9 +521,11 @@
         <v>1094225.166329371</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J4" t="n">
         <v>14.5</v>
       </c>
@@ -560,9 +562,11 @@
         <v>920798.4540293706</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J5" t="n">
         <v>14.5</v>
       </c>
@@ -599,7 +603,7 @@
         <v>920674.4540293706</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>14.3</v>
@@ -640,7 +644,7 @@
         <v>920231.1209293705</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>14.1</v>
@@ -681,7 +685,7 @@
         <v>947581.1209293705</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>14</v>
@@ -722,7 +726,7 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>14.3</v>
@@ -763,7 +767,7 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>14.2</v>
@@ -804,7 +808,7 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>14.2</v>
@@ -845,7 +849,7 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>14.4</v>
@@ -886,7 +890,7 @@
         <v>908152.7353293705</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>14.4</v>
@@ -927,7 +931,7 @@
         <v>912702.7351293705</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>14.3</v>
@@ -968,7 +972,7 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>14.4</v>
@@ -1009,9 +1013,11 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J16" t="n">
         <v>14.5</v>
       </c>
@@ -1048,9 +1054,11 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J17" t="n">
         <v>14.5</v>
       </c>
@@ -1087,7 +1095,7 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>14.3</v>
@@ -1128,9 +1136,11 @@
         <v>863111.8977293705</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J19" t="n">
         <v>14.5</v>
       </c>
@@ -1167,7 +1177,7 @@
         <v>863111.8977293705</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>14.2</v>
@@ -1208,9 +1218,11 @@
         <v>863111.8977293705</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14.2</v>
+      </c>
       <c r="J21" t="n">
         <v>14.5</v>
       </c>
@@ -1637,11 +1649,9 @@
         <v>950948.6880293706</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>14.5</v>
       </c>
@@ -1678,11 +1688,9 @@
         <v>950948.6880293706</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>14.5</v>
       </c>
@@ -1719,11 +1727,9 @@
         <v>950948.6880293706</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>14.5</v>
       </c>
@@ -1760,11 +1766,9 @@
         <v>950948.6880293706</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>14.5</v>
       </c>
@@ -1918,11 +1922,9 @@
         <v>1001254.406029371</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>14.5</v>
       </c>
@@ -1959,11 +1961,9 @@
         <v>999020.0826293706</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>14.5</v>
       </c>
@@ -2000,11 +2000,9 @@
         <v>999020.0826293706</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>14.5</v>
       </c>
@@ -2041,11 +2039,9 @@
         <v>999020.0826293706</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>14.5</v>
       </c>
@@ -2589,11 +2585,9 @@
         <v>1072250.023274198</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>14.5</v>
       </c>
@@ -2630,11 +2624,9 @@
         <v>1072250.023274198</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>14.5</v>
       </c>
@@ -2671,11 +2663,9 @@
         <v>1072250.023274198</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>14.5</v>
       </c>
@@ -2712,11 +2702,9 @@
         <v>1131171.783374198</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>14.5</v>
       </c>
@@ -2792,11 +2780,9 @@
         <v>1131171.783374198</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>14.5</v>
       </c>
@@ -2833,11 +2819,9 @@
         <v>1132005.783374198</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>14.5</v>
       </c>
@@ -2913,11 +2897,9 @@
         <v>1132005.783374198</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>14.5</v>
       </c>
@@ -3110,7 +3092,7 @@
         <v>1234912.997074198</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
@@ -3118,11 +3100,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.001896551724138</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
     </row>
@@ -3149,11 +3131,17 @@
         <v>1232834.419874198</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3185,8 +3173,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3218,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3248,15 +3248,15 @@
         <v>1231501.919874198</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3290,7 +3290,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3327,7 +3329,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3364,7 +3368,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3401,7 +3407,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,7 +3446,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,7 +3485,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,7 +3524,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,12 +3560,12 @@
         <v>736910.9151741983</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,7 +3602,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3625,7 +3641,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,16 +3677,20 @@
         <v>838501.0675741984</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3694,11 +3716,17 @@
         <v>838501.0675741984</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3727,11 +3755,17 @@
         <v>839501.0675741984</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3794,17 @@
         <v>815100.0308741983</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3796,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3826,11 +3872,17 @@
         <v>809214.0376741983</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3862,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3895,8 +3953,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3928,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3961,8 +4031,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3991,15 +4067,23 @@
         <v>1232295.985774198</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>1.063965517241379</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.006944444444444</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4024,7 +4108,7 @@
         <v>1220555.985774198</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4057,7 +4141,7 @@
         <v>1221401.985774198</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4090,7 +4174,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4123,7 +4207,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4156,7 +4240,7 @@
         <v>1185149.350274198</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4189,7 +4273,7 @@
         <v>1181387.982374198</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4222,7 +4306,7 @@
         <v>1227949.740874198</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4255,7 +4339,7 @@
         <v>1052272.362874198</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4288,7 +4372,7 @@
         <v>1121580.051174198</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4321,7 +4405,7 @@
         <v>1121580.051174198</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4354,7 +4438,7 @@
         <v>1116470.051174198</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4387,7 +4471,7 @@
         <v>1116470.051174198</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4420,7 +4504,7 @@
         <v>1116470.051174198</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4453,7 +4537,7 @@
         <v>1068643.051174198</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4486,7 +4570,7 @@
         <v>1003910.051174198</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4519,7 +4603,7 @@
         <v>1027367.544274198</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4552,7 +4636,7 @@
         <v>1027467.544274198</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4585,7 +4669,7 @@
         <v>962925.5328741983</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4618,7 +4702,7 @@
         <v>962925.5328741983</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4651,7 +4735,7 @@
         <v>962945.5328741983</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4684,7 +4768,7 @@
         <v>963045.5328741983</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4717,7 +4801,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4750,7 +4834,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4783,7 +4867,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4816,7 +4900,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4849,7 +4933,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4948,7 +5032,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4981,7 +5065,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5179,7 +5263,7 @@
         <v>974830.7753741982</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -6037,7 +6121,7 @@
         <v>971831.2434741983</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6103,7 +6187,7 @@
         <v>954999.9645626337</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6202,7 +6286,7 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6235,7 +6319,7 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6268,7 +6352,7 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6301,7 +6385,7 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6334,7 +6418,7 @@
         <v>956914.8693245385</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6466,7 +6550,7 @@
         <v>896078.5334245386</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6499,7 +6583,7 @@
         <v>895180.0509245385</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6631,14 +6715,10 @@
         <v>890710.0509245385</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J174" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6671,14 +6751,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6710,14 +6784,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6779,17 +6847,11 @@
         <v>953951.7683245385</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6822,11 +6884,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6855,17 +6913,11 @@
         <v>1148379.768324539</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6894,17 +6946,11 @@
         <v>1126852.754524539</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6933,17 +6979,11 @@
         <v>1130181.838224539</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6972,17 +7012,11 @@
         <v>1128400.968724539</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7011,17 +7045,11 @@
         <v>916632.9687245386</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7050,17 +7078,11 @@
         <v>864266.2057245385</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7089,17 +7111,11 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7128,17 +7144,11 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7167,17 +7177,11 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7206,17 +7210,11 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7245,17 +7243,11 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7284,23 +7276,17 @@
         <v>866995.6794245385</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>1094225.166329371</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>920798.4540293706</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>920674.4540293706</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>920231.1209293705</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>947581.1209293705</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>908152.7353293705</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>912702.7351293705</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +946,11 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +979,11 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1012,11 @@
         <v>863111.8977293705</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1045,11 @@
         <v>863111.8977293705</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1078,11 @@
         <v>863111.8977293705</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1262,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1301,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1340,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1379,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1418,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1457,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1496,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1535,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1574,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1613,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1652,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1691,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1730,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1769,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1808,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1847,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1925,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1964,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2003,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2042,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2081,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2120,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2159,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2237,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2276,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2315,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2354,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2393,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2432,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2471,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2510,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2588,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2627,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2666,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2705,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2744,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2783,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2822,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2861,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2900,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2939,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2978,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3017,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3056,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3095,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3134,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3173,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3212,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3251,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3290,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3329,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3368,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3407,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3446,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3485,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3524,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3563,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3602,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3641,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3680,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3719,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3758,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3797,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3836,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3875,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3914,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3953,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3989,17 +3421,11 @@
         <v>861569.5054741983</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4031,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4067,23 +3487,15 @@
         <v>1232295.985774198</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>1.063965517241379</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.006944444444444</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4108,7 +3520,7 @@
         <v>1220555.985774198</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4141,7 +3553,7 @@
         <v>1221401.985774198</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4174,7 +3586,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4207,7 +3619,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4240,7 +3652,7 @@
         <v>1185149.350274198</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4273,7 +3685,7 @@
         <v>1181387.982374198</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4306,7 +3718,7 @@
         <v>1227949.740874198</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4339,7 +3751,7 @@
         <v>1052272.362874198</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4372,7 +3784,7 @@
         <v>1121580.051174198</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4405,7 +3817,7 @@
         <v>1121580.051174198</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4438,7 +3850,7 @@
         <v>1116470.051174198</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4471,7 +3883,7 @@
         <v>1116470.051174198</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4504,7 +3916,7 @@
         <v>1116470.051174198</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4603,7 +4015,7 @@
         <v>1027367.544274198</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4636,7 +4048,7 @@
         <v>1027467.544274198</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4669,7 +4081,7 @@
         <v>962925.5328741983</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4702,7 +4114,7 @@
         <v>962925.5328741983</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4735,7 +4147,7 @@
         <v>962945.5328741983</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4768,7 +4180,7 @@
         <v>963045.5328741983</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4801,7 +4213,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4867,7 +4279,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4900,7 +4312,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4933,7 +4345,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4999,7 +4411,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5065,7 +4477,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5725,10 +5137,14 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5758,11 +5174,19 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J145" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5791,11 +5215,19 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -7111,10 +6543,14 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>14.1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
@@ -7144,11 +6580,19 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7177,11 +6621,19 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7210,11 +6662,19 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7243,11 +6703,19 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7276,17 +6744,25 @@
         <v>866995.6794245385</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -451,7 +451,7 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1141637.38842937</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1094225.166329371</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>920798.4540293706</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>920674.4540293706</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>920231.1209293705</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>947581.1209293705</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>943381.1209293705</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,17 @@
         <v>945334.4102293705</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +888,17 @@
         <v>908152.7353293705</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>912702.7351293705</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +968,17 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1007,17 @@
         <v>894111.8977293705</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1049,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1088,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1127,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1166,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1205,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1244,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1283,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1322,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1361,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1400,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1439,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1478,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1517,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1556,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1595,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1634,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1673,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1712,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1751,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1790,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1829,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1868,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1907,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1985,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2024,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2063,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2102,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2141,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2180,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2219,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2258,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2297,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2336,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2375,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2453,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2492,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2531,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2570,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2609,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2648,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2687,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2726,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2765,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2804,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2843,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2882,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2921,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2960,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2999,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3038,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3077,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3116,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3155,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3194,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3233,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3272,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3311,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3350,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3389,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3428,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3467,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3506,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3545,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3584,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3623,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3662,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3701,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3740,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3779,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3896,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3935,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3971,17 @@
         <v>861569.5054741983</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4013,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,15 +4049,23 @@
         <v>1232295.985774198</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>1.063965517241379</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.006944444444444</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3520,7 +4090,7 @@
         <v>1220555.985774198</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +4123,7 @@
         <v>1221401.985774198</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +4156,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +4189,7 @@
         <v>1218804.113274198</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +4222,7 @@
         <v>1185149.350274198</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +4255,7 @@
         <v>1181387.982374198</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +4321,7 @@
         <v>1052272.362874198</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3949,7 +4519,7 @@
         <v>1068643.051174198</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4552,7 @@
         <v>1003910.051174198</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4246,7 +4816,7 @@
         <v>962745.5328741983</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4411,7 +4981,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +5014,7 @@
         <v>978808.0738741982</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5137,14 +5707,10 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5174,19 +5740,11 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J145" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5215,19 +5773,11 @@
         <v>936950.7268741983</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6543,14 +7093,10 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J186" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
@@ -6580,19 +7126,11 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J187" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6621,19 +7159,11 @@
         <v>870067.4902245385</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J188" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6662,19 +7192,11 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J189" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6703,19 +7225,11 @@
         <v>860395.6794245385</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J190" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6744,19 +7258,11 @@
         <v>866995.6794245385</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J191" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest SNT.xlsx
+++ b/BackTest/2019-10-26 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1749.6515</v>
       </c>
       <c r="G2" t="n">
-        <v>1141637.38842937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>8250.3485</v>
       </c>
       <c r="G3" t="n">
-        <v>1141637.38842937</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,19 @@
         <v>47412.2221</v>
       </c>
       <c r="G4" t="n">
-        <v>1094225.166329371</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>14.5</v>
       </c>
       <c r="I4" t="n">
         <v>14.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +537,23 @@
         <v>173426.7123</v>
       </c>
       <c r="G5" t="n">
-        <v>920798.4540293706</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>14.4</v>
       </c>
       <c r="I5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>14.5</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +575,23 @@
         <v>124</v>
       </c>
       <c r="G6" t="n">
-        <v>920674.4540293706</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>14.3</v>
       </c>
       <c r="I6" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +613,23 @@
         <v>443.3331</v>
       </c>
       <c r="G7" t="n">
-        <v>920231.1209293705</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>14.1</v>
       </c>
       <c r="I7" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +651,23 @@
         <v>27350</v>
       </c>
       <c r="G8" t="n">
-        <v>947581.1209293705</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +689,23 @@
         <v>4200</v>
       </c>
       <c r="G9" t="n">
-        <v>943381.1209293705</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>14.3</v>
       </c>
       <c r="I9" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +727,23 @@
         <v>2660</v>
       </c>
       <c r="G10" t="n">
-        <v>943381.1209293705</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>14.2</v>
       </c>
       <c r="I10" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +765,21 @@
         <v>1953.2893</v>
       </c>
       <c r="G11" t="n">
-        <v>945334.4102293705</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,24 +801,21 @@
         <v>8032.1557</v>
       </c>
       <c r="G12" t="n">
-        <v>945334.4102293705</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -885,24 +837,21 @@
         <v>37181.6749</v>
       </c>
       <c r="G13" t="n">
-        <v>908152.7353293705</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,26 +873,21 @@
         <v>4549.9998</v>
       </c>
       <c r="G14" t="n">
-        <v>912702.7351293705</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -965,24 +909,21 @@
         <v>18590.8374</v>
       </c>
       <c r="G15" t="n">
-        <v>894111.8977293705</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1004,24 +945,21 @@
         <v>2856.3645</v>
       </c>
       <c r="G16" t="n">
-        <v>894111.8977293705</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1043,24 +981,21 @@
         <v>2280</v>
       </c>
       <c r="G17" t="n">
-        <v>894111.8977293705</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1082,24 +1017,21 @@
         <v>4157.4488</v>
       </c>
       <c r="G18" t="n">
-        <v>894111.8977293705</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1121,24 +1053,21 @@
         <v>31000</v>
       </c>
       <c r="G19" t="n">
-        <v>863111.8977293705</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1160,24 +1089,21 @@
         <v>35901.4084</v>
       </c>
       <c r="G20" t="n">
-        <v>863111.8977293705</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1199,24 +1125,21 @@
         <v>2051.824</v>
       </c>
       <c r="G21" t="n">
-        <v>863111.8977293705</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1238,24 +1161,21 @@
         <v>919502.5138</v>
       </c>
       <c r="G22" t="n">
-        <v>1782614.411529371</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1277,24 +1197,21 @@
         <v>6878.7537</v>
       </c>
       <c r="G23" t="n">
-        <v>1775735.657829371</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1316,24 +1233,21 @@
         <v>1070582.7311</v>
       </c>
       <c r="G24" t="n">
-        <v>705152.9267293706</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1355,24 +1269,21 @@
         <v>58070.1786</v>
       </c>
       <c r="G25" t="n">
-        <v>763223.1053293706</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1394,24 +1305,21 @@
         <v>155910.9829</v>
       </c>
       <c r="G26" t="n">
-        <v>919134.0882293705</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1433,24 +1341,21 @@
         <v>1883.3459</v>
       </c>
       <c r="G27" t="n">
-        <v>917250.7423293706</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1472,24 +1377,21 @@
         <v>33697.9457</v>
       </c>
       <c r="G28" t="n">
-        <v>950948.6880293706</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1511,24 +1413,21 @@
         <v>64409.2609</v>
       </c>
       <c r="G29" t="n">
-        <v>950948.6880293706</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1550,24 +1449,21 @@
         <v>3450.7042</v>
       </c>
       <c r="G30" t="n">
-        <v>950948.6880293706</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1589,24 +1485,21 @@
         <v>37861.2403</v>
       </c>
       <c r="G31" t="n">
-        <v>950948.6880293706</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1628,24 +1521,21 @@
         <v>7546.6017</v>
       </c>
       <c r="G32" t="n">
-        <v>950948.6880293706</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1667,24 +1557,21 @@
         <v>27086.9699</v>
       </c>
       <c r="G33" t="n">
-        <v>950948.6880293706</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1706,24 +1593,21 @@
         <v>6449.8736</v>
       </c>
       <c r="G34" t="n">
-        <v>950948.6880293706</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1745,24 +1629,21 @@
         <v>27447.8546</v>
       </c>
       <c r="G35" t="n">
-        <v>950948.6880293706</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1784,24 +1665,21 @@
         <v>35678.5872</v>
       </c>
       <c r="G36" t="n">
-        <v>915270.1008293707</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1823,24 +1701,21 @@
         <v>45800</v>
       </c>
       <c r="G37" t="n">
-        <v>961070.1008293707</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1862,24 +1737,21 @@
         <v>100000</v>
       </c>
       <c r="G38" t="n">
-        <v>961070.1008293707</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1901,24 +1773,21 @@
         <v>40184.3052</v>
       </c>
       <c r="G39" t="n">
-        <v>1001254.406029371</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1940,24 +1809,21 @@
         <v>2234.3234</v>
       </c>
       <c r="G40" t="n">
-        <v>999020.0826293706</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1979,24 +1845,21 @@
         <v>5268</v>
       </c>
       <c r="G41" t="n">
-        <v>999020.0826293706</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2018,24 +1881,21 @@
         <v>28800</v>
       </c>
       <c r="G42" t="n">
-        <v>999020.0826293706</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2057,24 +1917,21 @@
         <v>21433.2117</v>
       </c>
       <c r="G43" t="n">
-        <v>999020.0826293706</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2096,24 +1953,21 @@
         <v>117315.515</v>
       </c>
       <c r="G44" t="n">
-        <v>999020.0826293706</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2135,24 +1989,21 @@
         <v>73641.1176</v>
       </c>
       <c r="G45" t="n">
-        <v>1072661.200229371</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,24 +2025,21 @@
         <v>78800</v>
       </c>
       <c r="G46" t="n">
-        <v>1072661.200229371</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2213,24 +2061,21 @@
         <v>1399.2361</v>
       </c>
       <c r="G47" t="n">
-        <v>1072661.200229371</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,24 +2097,21 @@
         <v>18600</v>
       </c>
       <c r="G48" t="n">
-        <v>1072661.200229371</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2291,24 +2133,21 @@
         <v>1390</v>
       </c>
       <c r="G49" t="n">
-        <v>1072661.200229371</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2330,24 +2169,21 @@
         <v>1379.310344827586</v>
       </c>
       <c r="G50" t="n">
-        <v>1074040.510574198</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2369,24 +2205,21 @@
         <v>37851.1034</v>
       </c>
       <c r="G51" t="n">
-        <v>1074040.510574198</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2408,24 +2241,21 @@
         <v>21000</v>
       </c>
       <c r="G52" t="n">
-        <v>1074040.510574198</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2447,24 +2277,21 @@
         <v>1790.4873</v>
       </c>
       <c r="G53" t="n">
-        <v>1072250.023274198</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2486,24 +2313,21 @@
         <v>400</v>
       </c>
       <c r="G54" t="n">
-        <v>1072250.023274198</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2525,24 +2349,21 @@
         <v>38600</v>
       </c>
       <c r="G55" t="n">
-        <v>1072250.023274198</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2564,24 +2385,21 @@
         <v>17278.4622</v>
       </c>
       <c r="G56" t="n">
-        <v>1072250.023274198</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2603,24 +2421,21 @@
         <v>24040</v>
       </c>
       <c r="G57" t="n">
-        <v>1072250.023274198</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2642,24 +2457,21 @@
         <v>52648</v>
       </c>
       <c r="G58" t="n">
-        <v>1072250.023274198</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2681,24 +2493,21 @@
         <v>58921.7601</v>
       </c>
       <c r="G59" t="n">
-        <v>1131171.783374198</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2720,24 +2529,21 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>1131171.783374198</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2759,24 +2565,21 @@
         <v>2530</v>
       </c>
       <c r="G61" t="n">
-        <v>1131171.783374198</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2798,24 +2601,21 @@
         <v>834</v>
       </c>
       <c r="G62" t="n">
-        <v>1132005.783374198</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2837,24 +2637,21 @@
         <v>166</v>
       </c>
       <c r="G63" t="n">
-        <v>1132005.783374198</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2876,24 +2673,21 @@
         <v>35700</v>
       </c>
       <c r="G64" t="n">
-        <v>1132005.783374198</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2915,24 +2709,21 @@
         <v>91.9061</v>
       </c>
       <c r="G65" t="n">
-        <v>1132005.783374198</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2954,24 +2745,21 @@
         <v>315</v>
       </c>
       <c r="G66" t="n">
-        <v>1132005.783374198</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2993,24 +2781,21 @@
         <v>117591.6494</v>
       </c>
       <c r="G67" t="n">
-        <v>1249597.432774198</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3032,24 +2817,21 @@
         <v>4611.287</v>
       </c>
       <c r="G68" t="n">
-        <v>1254208.719774198</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3071,24 +2853,21 @@
         <v>19295.7227</v>
       </c>
       <c r="G69" t="n">
-        <v>1234912.997074198</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3110,24 +2889,21 @@
         <v>2078.5772</v>
       </c>
       <c r="G70" t="n">
-        <v>1232834.419874198</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3149,24 +2925,21 @@
         <v>4072.5</v>
       </c>
       <c r="G71" t="n">
-        <v>1228761.919874198</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3188,24 +2961,21 @@
         <v>295</v>
       </c>
       <c r="G72" t="n">
-        <v>1228761.919874198</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3227,24 +2997,21 @@
         <v>2740</v>
       </c>
       <c r="G73" t="n">
-        <v>1231501.919874198</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3266,24 +3033,21 @@
         <v>21970</v>
       </c>
       <c r="G74" t="n">
-        <v>1231501.919874198</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3305,24 +3069,21 @@
         <v>32598</v>
       </c>
       <c r="G75" t="n">
-        <v>1231501.919874198</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3344,24 +3105,21 @@
         <v>525655.9225</v>
       </c>
       <c r="G76" t="n">
-        <v>705845.9973741983</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3383,24 +3141,21 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>705855.9973741983</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3422,24 +3177,21 @@
         <v>5620</v>
       </c>
       <c r="G78" t="n">
-        <v>705855.9973741983</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3461,24 +3213,21 @@
         <v>245</v>
       </c>
       <c r="G79" t="n">
-        <v>706100.9973741983</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3500,24 +3249,21 @@
         <v>33600</v>
       </c>
       <c r="G80" t="n">
-        <v>739700.9973741983</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3539,24 +3285,21 @@
         <v>2790.0822</v>
       </c>
       <c r="G81" t="n">
-        <v>736910.9151741983</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3578,24 +3321,21 @@
         <v>5823.8743</v>
       </c>
       <c r="G82" t="n">
-        <v>742734.7894741984</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3617,24 +3357,21 @@
         <v>8405</v>
       </c>
       <c r="G83" t="n">
-        <v>742734.7894741984</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3656,24 +3393,21 @@
         <v>95766.2781</v>
       </c>
       <c r="G84" t="n">
-        <v>838501.0675741984</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3695,24 +3429,21 @@
         <v>4800</v>
       </c>
       <c r="G85" t="n">
-        <v>838501.0675741984</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3734,24 +3465,21 @@
         <v>1000</v>
       </c>
       <c r="G86" t="n">
-        <v>839501.0675741984</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3773,24 +3501,21 @@
         <v>24401.0367</v>
       </c>
       <c r="G87" t="n">
-        <v>815100.0308741983</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3812,24 +3537,21 @@
         <v>1308</v>
       </c>
       <c r="G88" t="n">
-        <v>816408.0308741983</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3851,24 +3573,21 @@
         <v>7193.9932</v>
       </c>
       <c r="G89" t="n">
-        <v>809214.0376741983</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3890,24 +3609,21 @@
         <v>376.0068</v>
       </c>
       <c r="G90" t="n">
-        <v>809214.0376741983</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3929,24 +3645,21 @@
         <v>28344.6571</v>
       </c>
       <c r="G91" t="n">
-        <v>837558.6947741982</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3968,24 +3681,21 @@
         <v>24010.8107</v>
       </c>
       <c r="G92" t="n">
-        <v>861569.5054741983</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4007,24 +3717,21 @@
         <v>300079.4803</v>
       </c>
       <c r="G93" t="n">
-        <v>1161648.985774198</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4046,24 +3753,21 @@
         <v>70647</v>
       </c>
       <c r="G94" t="n">
-        <v>1232295.985774198</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K94" t="n">
+        <v>1.063965517241379</v>
+      </c>
       <c r="L94" t="n">
-        <v>1.063965517241379</v>
-      </c>
-      <c r="M94" t="n">
         <v>1.006944444444444</v>
       </c>
     </row>
@@ -4087,18 +3791,15 @@
         <v>11740</v>
       </c>
       <c r="G95" t="n">
-        <v>1220555.985774198</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4120,18 +3821,15 @@
         <v>846</v>
       </c>
       <c r="G96" t="n">
-        <v>1221401.985774198</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4153,18 +3851,15 @@
         <v>2597.8725</v>
       </c>
       <c r="G97" t="n">
-        <v>1218804.113274198</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4186,18 +3881,15 @@
         <v>11258.6122</v>
       </c>
       <c r="G98" t="n">
-        <v>1218804.113274198</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4219,18 +3911,15 @@
         <v>33654.763</v>
       </c>
       <c r="G99" t="n">
-        <v>1185149.350274198</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4252,18 +3941,15 @@
         <v>3761.3679</v>
       </c>
       <c r="G100" t="n">
-        <v>1181387.982374198</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4285,18 +3971,15 @@
         <v>46561.7585</v>
       </c>
       <c r="G101" t="n">
-        <v>1227949.740874198</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4318,18 +4001,15 @@
         <v>175677.378</v>
       </c>
       <c r="G102" t="n">
-        <v>1052272.362874198</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4351,18 +4031,15 @@
         <v>69307.68829999999</v>
       </c>
       <c r="G103" t="n">
-        <v>1121580.051174198</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4384,18 +4061,15 @@
         <v>1763.6636</v>
       </c>
       <c r="G104" t="n">
-        <v>1121580.051174198</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4417,18 +4091,15 @@
         <v>5110</v>
       </c>
       <c r="G105" t="n">
-        <v>1116470.051174198</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4450,18 +4121,15 @@
         <v>38395.8134</v>
       </c>
       <c r="G106" t="n">
-        <v>1116470.051174198</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4483,18 +4151,15 @@
         <v>2416.2608</v>
       </c>
       <c r="G107" t="n">
-        <v>1116470.051174198</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4516,18 +4181,15 @@
         <v>47827</v>
       </c>
       <c r="G108" t="n">
-        <v>1068643.051174198</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4549,18 +4211,15 @@
         <v>64733</v>
       </c>
       <c r="G109" t="n">
-        <v>1003910.051174198</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4582,18 +4241,15 @@
         <v>23457.4931</v>
       </c>
       <c r="G110" t="n">
-        <v>1027367.544274198</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4615,18 +4271,15 @@
         <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>1027467.544274198</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4648,18 +4301,15 @@
         <v>64542.0114</v>
       </c>
       <c r="G112" t="n">
-        <v>962925.5328741983</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4681,18 +4331,15 @@
         <v>2713.0929</v>
       </c>
       <c r="G113" t="n">
-        <v>962925.5328741983</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4714,18 +4361,15 @@
         <v>20</v>
       </c>
       <c r="G114" t="n">
-        <v>962945.5328741983</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4747,18 +4391,15 @@
         <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>963045.5328741983</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4780,18 +4421,15 @@
         <v>300</v>
       </c>
       <c r="G116" t="n">
-        <v>962745.5328741983</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4813,18 +4451,15 @@
         <v>5226.9999</v>
       </c>
       <c r="G117" t="n">
-        <v>962745.5328741983</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4846,18 +4481,15 @@
         <v>24000</v>
       </c>
       <c r="G118" t="n">
-        <v>962745.5328741983</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4879,18 +4511,15 @@
         <v>122897.97</v>
       </c>
       <c r="G119" t="n">
-        <v>962745.5328741983</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4912,18 +4541,15 @@
         <v>0.0027</v>
       </c>
       <c r="G120" t="n">
-        <v>962745.5328741983</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4945,18 +4571,15 @@
         <v>1985.061</v>
       </c>
       <c r="G121" t="n">
-        <v>960760.4718741983</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4978,18 +4601,15 @@
         <v>18047.602</v>
       </c>
       <c r="G122" t="n">
-        <v>978808.0738741982</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5011,18 +4631,15 @@
         <v>7210.5308</v>
       </c>
       <c r="G123" t="n">
-        <v>978808.0738741982</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5044,18 +4661,15 @@
         <v>3908.4996</v>
       </c>
       <c r="G124" t="n">
-        <v>978808.0738741982</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5077,18 +4691,15 @@
         <v>3977.2985</v>
       </c>
       <c r="G125" t="n">
-        <v>974830.7753741982</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5110,18 +4721,15 @@
         <v>1984.281</v>
       </c>
       <c r="G126" t="n">
-        <v>974830.7753741982</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5143,18 +4751,15 @@
         <v>2994.65</v>
       </c>
       <c r="G127" t="n">
-        <v>974830.7753741982</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5176,18 +4781,15 @@
         <v>1988.6492</v>
       </c>
       <c r="G128" t="n">
-        <v>974830.7753741982</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5209,18 +4811,15 @@
         <v>18400</v>
       </c>
       <c r="G129" t="n">
-        <v>974830.7753741982</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5242,18 +4841,15 @@
         <v>13620.1774</v>
       </c>
       <c r="G130" t="n">
-        <v>974830.7753741982</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5275,18 +4871,15 @@
         <v>17117.3038</v>
       </c>
       <c r="G131" t="n">
-        <v>957713.4715741982</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5308,18 +4901,15 @@
         <v>72702.3023</v>
       </c>
       <c r="G132" t="n">
-        <v>957713.4715741982</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5341,18 +4931,15 @@
         <v>2680</v>
       </c>
       <c r="G133" t="n">
-        <v>960393.4715741982</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5374,18 +4961,15 @@
         <v>20600</v>
       </c>
       <c r="G134" t="n">
-        <v>960393.4715741982</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5407,18 +4991,15 @@
         <v>44454.5683</v>
       </c>
       <c r="G135" t="n">
-        <v>915938.9032741982</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5440,18 +5021,15 @@
         <v>1979.4447</v>
       </c>
       <c r="G136" t="n">
-        <v>917918.3479741982</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5473,18 +5051,15 @@
         <v>3989.0186</v>
       </c>
       <c r="G137" t="n">
-        <v>913929.3293741982</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5506,18 +5081,15 @@
         <v>18537.449</v>
       </c>
       <c r="G138" t="n">
-        <v>913929.3293741982</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5539,18 +5111,15 @@
         <v>688.9583</v>
       </c>
       <c r="G139" t="n">
-        <v>913929.3293741982</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5572,18 +5141,15 @@
         <v>3040</v>
       </c>
       <c r="G140" t="n">
-        <v>916969.3293741982</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5605,18 +5171,15 @@
         <v>1397.2159</v>
       </c>
       <c r="G141" t="n">
-        <v>915572.1134741983</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5638,18 +5201,15 @@
         <v>9296.386200000001</v>
       </c>
       <c r="G142" t="n">
-        <v>915572.1134741983</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5671,18 +5231,15 @@
         <v>21378.6134</v>
       </c>
       <c r="G143" t="n">
-        <v>936950.7268741983</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5704,18 +5261,15 @@
         <v>20800</v>
       </c>
       <c r="G144" t="n">
-        <v>936950.7268741983</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5737,18 +5291,15 @@
         <v>1963.8438</v>
       </c>
       <c r="G145" t="n">
-        <v>936950.7268741983</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5770,18 +5321,15 @@
         <v>17305</v>
       </c>
       <c r="G146" t="n">
-        <v>936950.7268741983</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5803,18 +5351,15 @@
         <v>50000</v>
       </c>
       <c r="G147" t="n">
-        <v>936950.7268741983</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5836,18 +5381,15 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>936950.7268741983</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5869,18 +5411,15 @@
         <v>20</v>
       </c>
       <c r="G149" t="n">
-        <v>936950.7268741983</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5902,18 +5441,15 @@
         <v>12900.5166</v>
       </c>
       <c r="G150" t="n">
-        <v>949851.2434741983</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5935,18 +5471,15 @@
         <v>22000</v>
       </c>
       <c r="G151" t="n">
-        <v>971851.2434741983</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5968,18 +5501,15 @@
         <v>42584.0367</v>
       </c>
       <c r="G152" t="n">
-        <v>971851.2434741983</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6001,18 +5531,15 @@
         <v>20</v>
       </c>
       <c r="G153" t="n">
-        <v>971831.2434741983</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6034,18 +5561,15 @@
         <v>10</v>
       </c>
       <c r="G154" t="n">
-        <v>971831.2434741983</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6067,18 +5591,15 @@
         <v>30802.72108843537</v>
       </c>
       <c r="G155" t="n">
-        <v>971831.2434741983</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6100,18 +5621,15 @@
         <v>14972.2675</v>
       </c>
       <c r="G156" t="n">
-        <v>971831.2434741983</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6133,18 +5651,15 @@
         <v>6802.721088435374</v>
       </c>
       <c r="G157" t="n">
-        <v>978633.9645626337</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6166,18 +5681,15 @@
         <v>23634</v>
       </c>
       <c r="G158" t="n">
-        <v>954999.9645626337</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6199,18 +5711,15 @@
         <v>3980</v>
       </c>
       <c r="G159" t="n">
-        <v>954999.9645626337</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6232,18 +5741,15 @@
         <v>8163.265306122449</v>
       </c>
       <c r="G160" t="n">
-        <v>963163.2298687561</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6265,18 +5771,15 @@
         <v>6248.360544217687</v>
       </c>
       <c r="G161" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6298,18 +5801,15 @@
         <v>24868</v>
       </c>
       <c r="G162" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6331,18 +5831,15 @@
         <v>11896.1755</v>
       </c>
       <c r="G163" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6364,18 +5861,15 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6397,18 +5891,15 @@
         <v>27334.557</v>
       </c>
       <c r="G165" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6430,18 +5921,15 @@
         <v>19800</v>
       </c>
       <c r="G166" t="n">
-        <v>956914.8693245385</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6463,18 +5951,15 @@
         <v>1984.8184</v>
       </c>
       <c r="G167" t="n">
-        <v>954930.0509245385</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6496,18 +5981,15 @@
         <v>100</v>
       </c>
       <c r="G168" t="n">
-        <v>955030.0509245385</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6529,18 +6011,15 @@
         <v>58951.5175</v>
       </c>
       <c r="G169" t="n">
-        <v>896078.5334245386</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6562,18 +6041,15 @@
         <v>898.4825</v>
       </c>
       <c r="G170" t="n">
-        <v>895180.0509245385</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6595,18 +6071,15 @@
         <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>895190.0509245385</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6628,18 +6101,15 @@
         <v>4480</v>
       </c>
       <c r="G172" t="n">
-        <v>890710.0509245385</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6661,18 +6131,15 @@
         <v>65371.6852</v>
       </c>
       <c r="G173" t="n">
-        <v>890710.0509245385</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6694,18 +6161,15 @@
         <v>5885.9352</v>
       </c>
       <c r="G174" t="n">
-        <v>890710.0509245385</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6727,18 +6191,15 @@
         <v>105658.7256</v>
       </c>
       <c r="G175" t="n">
-        <v>996368.7765245385</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6760,18 +6221,15 @@
         <v>21000</v>
       </c>
       <c r="G176" t="n">
-        <v>975368.7765245385</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6793,18 +6251,15 @@
         <v>6004.3968</v>
       </c>
       <c r="G177" t="n">
-        <v>981373.1733245385</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6826,18 +6281,15 @@
         <v>27421.405</v>
       </c>
       <c r="G178" t="n">
-        <v>953951.7683245385</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6859,18 +6311,15 @@
         <v>20</v>
       </c>
       <c r="G179" t="n">
-        <v>953931.7683245385</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6892,18 +6341,15 @@
         <v>194448</v>
       </c>
       <c r="G180" t="n">
-        <v>1148379.768324539</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6925,18 +6371,15 @@
         <v>21527.0138</v>
       </c>
       <c r="G181" t="n">
-        <v>1126852.754524539</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6958,18 +6401,15 @@
         <v>3329.0837</v>
       </c>
       <c r="G182" t="n">
-        <v>1130181.838224539</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6991,18 +6431,15 @@
         <v>1780.8695</v>
       </c>
       <c r="G183" t="n">
-        <v>1128400.968724539</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7024,18 +6461,15 @@
         <v>211768</v>
       </c>
       <c r="G184" t="n">
-        <v>916632.9687245386</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7057,18 +6491,15 @@
         <v>52366.763</v>
       </c>
       <c r="G185" t="n">
-        <v>864266.2057245385</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7090,18 +6521,15 @@
         <v>5801.2845</v>
       </c>
       <c r="G186" t="n">
-        <v>870067.4902245385</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7123,18 +6551,15 @@
         <v>5968.7707</v>
       </c>
       <c r="G187" t="n">
-        <v>870067.4902245385</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7156,18 +6581,15 @@
         <v>3000.0933</v>
       </c>
       <c r="G188" t="n">
-        <v>870067.4902245385</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7189,18 +6611,15 @@
         <v>9671.810799999999</v>
       </c>
       <c r="G189" t="n">
-        <v>860395.6794245385</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7222,18 +6641,15 @@
         <v>76985.99189999999</v>
       </c>
       <c r="G190" t="n">
-        <v>860395.6794245385</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7255,18 +6671,15 @@
         <v>6600</v>
       </c>
       <c r="G191" t="n">
-        <v>866995.6794245385</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
